--- a/early_releases_excel_generation/early_releases.xlsx
+++ b/early_releases_excel_generation/early_releases.xlsx
@@ -462,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K153"/>
+  <dimension ref="A1:K163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -504,7 +504,7 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>Report Date: 2024-08-22</t>
+          <t>Report Date: 2024-08-28</t>
         </is>
       </c>
       <c r="B2" s="2" t="n"/>
@@ -1001,48 +1001,48 @@
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>ZLEW01</t>
+          <t>ZDAM01</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>Martina Christina</t>
+          <t>Lisbeth</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr">
         <is>
-          <t>Lewis</t>
+          <t>Damane</t>
         </is>
       </c>
       <c r="D13" s="7" t="inlineStr">
         <is>
-          <t>HFA202</t>
+          <t>HVK103</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr">
         <is>
-          <t>Heron Fields</t>
+          <t>Heron View</t>
         </is>
       </c>
       <c r="F13" s="7" t="inlineStr">
         <is>
-          <t>2022/11/30</t>
+          <t>2024/08/26</t>
         </is>
       </c>
       <c r="G13" s="8" t="n">
-        <v>446473.54</v>
+        <v>524463.92</v>
       </c>
       <c r="H13" s="8" t="n">
-        <v>341424.66</v>
+        <v>423120.71</v>
       </c>
       <c r="I13" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K13" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1063,24 +1063,24 @@
       </c>
       <c r="D14" s="7" t="inlineStr">
         <is>
-          <t>EB201</t>
+          <t>HFA202</t>
         </is>
       </c>
       <c r="E14" s="7" t="inlineStr">
         <is>
-          <t>Endulini</t>
+          <t>Heron Fields</t>
         </is>
       </c>
       <c r="F14" s="7" t="inlineStr">
         <is>
-          <t>2022/12/09</t>
+          <t>2022/11/30</t>
         </is>
       </c>
       <c r="G14" s="8" t="n">
-        <v>1108630.14</v>
+        <v>446473.54</v>
       </c>
       <c r="H14" s="8" t="n">
-        <v>1000000</v>
+        <v>341424.66</v>
       </c>
       <c r="I14" s="7" t="b">
         <v>1</v>
@@ -1095,22 +1095,22 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>ZHEI01</t>
+          <t>ZLEW01</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>Dieter Raimund</t>
+          <t>Martina Christina</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr">
         <is>
-          <t>Heinze</t>
+          <t>Lewis</t>
         </is>
       </c>
       <c r="D15" s="7" t="inlineStr">
         <is>
-          <t>EB202</t>
+          <t>EB201</t>
         </is>
       </c>
       <c r="E15" s="7" t="inlineStr">
@@ -1120,14 +1120,14 @@
       </c>
       <c r="F15" s="7" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2022/12/09</t>
         </is>
       </c>
       <c r="G15" s="8" t="n">
-        <v>1452090.41</v>
+        <v>1108630.14</v>
       </c>
       <c r="H15" s="8" t="n">
-        <v>1100000</v>
+        <v>1000000</v>
       </c>
       <c r="I15" s="7" t="b">
         <v>1</v>
@@ -1157,24 +1157,24 @@
       </c>
       <c r="D16" s="7" t="inlineStr">
         <is>
-          <t>HVD201</t>
+          <t>EB202</t>
         </is>
       </c>
       <c r="E16" s="7" t="inlineStr">
         <is>
-          <t>Heron View</t>
+          <t>Endulini</t>
         </is>
       </c>
       <c r="F16" s="7" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="G16" s="8" t="n">
-        <v>984516</v>
+        <v>1452090.41</v>
       </c>
       <c r="H16" s="8" t="n">
-        <v>771986.9399999999</v>
+        <v>1100000</v>
       </c>
       <c r="I16" s="7" t="b">
         <v>1</v>
@@ -1189,39 +1189,39 @@
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>ZLUN01</t>
+          <t>ZHEI01</t>
         </is>
       </c>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>Marc</t>
+          <t>Dieter Raimund</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr">
         <is>
-          <t>Lunau</t>
+          <t>Heinze</t>
         </is>
       </c>
       <c r="D17" s="7" t="inlineStr">
         <is>
-          <t>HFB104</t>
+          <t>HVD201</t>
         </is>
       </c>
       <c r="E17" s="7" t="inlineStr">
         <is>
-          <t>Heron Fields</t>
+          <t>Heron View</t>
         </is>
       </c>
       <c r="F17" s="7" t="inlineStr">
         <is>
-          <t>2022/11/30</t>
+          <t>2023/12/12</t>
         </is>
       </c>
       <c r="G17" s="8" t="n">
-        <v>155524.11</v>
+        <v>984516</v>
       </c>
       <c r="H17" s="8" t="n">
-        <v>120000</v>
+        <v>771986.9399999999</v>
       </c>
       <c r="I17" s="7" t="b">
         <v>1</v>
@@ -1236,7 +1236,7 @@
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>ZINT01</t>
+          <t>ZLUN01</t>
         </is>
       </c>
       <c r="B18" s="7" t="inlineStr">
@@ -1251,24 +1251,24 @@
       </c>
       <c r="D18" s="7" t="inlineStr">
         <is>
-          <t>HVD101</t>
+          <t>HFB104</t>
         </is>
       </c>
       <c r="E18" s="7" t="inlineStr">
         <is>
-          <t>Heron View</t>
+          <t>Heron Fields</t>
         </is>
       </c>
       <c r="F18" s="7" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2022/11/30</t>
         </is>
       </c>
       <c r="G18" s="8" t="n">
-        <v>128832.88</v>
+        <v>155524.11</v>
       </c>
       <c r="H18" s="8" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="I18" s="7" t="b">
         <v>1</v>
@@ -1283,39 +1283,39 @@
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>ZMCD01</t>
+          <t>ZINT01</t>
         </is>
       </c>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>Veronica Agnes</t>
+          <t>Marc</t>
         </is>
       </c>
       <c r="C19" s="7" t="inlineStr">
         <is>
-          <t>McDonald</t>
+          <t>Lunau</t>
         </is>
       </c>
       <c r="D19" s="7" t="inlineStr">
         <is>
-          <t>HFB104</t>
+          <t>HVD101</t>
         </is>
       </c>
       <c r="E19" s="7" t="inlineStr">
         <is>
-          <t>Heron Fields</t>
+          <t>Heron View</t>
         </is>
       </c>
       <c r="F19" s="7" t="inlineStr">
         <is>
-          <t>2022/11/30</t>
+          <t>2023/12/12</t>
         </is>
       </c>
       <c r="G19" s="8" t="n">
-        <v>683333.58</v>
+        <v>128832.88</v>
       </c>
       <c r="H19" s="8" t="n">
-        <v>531887.67</v>
+        <v>100000</v>
       </c>
       <c r="I19" s="7" t="b">
         <v>1</v>
@@ -1345,54 +1345,54 @@
       </c>
       <c r="D20" s="7" t="inlineStr">
         <is>
-          <t>HVK304</t>
+          <t>HFB104</t>
         </is>
       </c>
       <c r="E20" s="7" t="inlineStr">
         <is>
-          <t>Heron View</t>
+          <t>Heron Fields</t>
         </is>
       </c>
       <c r="F20" s="7" t="inlineStr">
         <is>
-          <t>2024/06/21</t>
+          <t>2022/11/30</t>
         </is>
       </c>
       <c r="G20" s="8" t="n">
-        <v>542265.41</v>
+        <v>683333.58</v>
       </c>
       <c r="H20" s="8" t="n">
-        <v>450000</v>
+        <v>531887.67</v>
       </c>
       <c r="I20" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="7" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K20" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>ZNAT01</t>
+          <t>ZMCD01</t>
         </is>
       </c>
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>Thandekile Evelyn</t>
+          <t>Veronica Agnes</t>
         </is>
       </c>
       <c r="C21" s="7" t="inlineStr">
         <is>
-          <t>Hlapolosa</t>
+          <t>McDonald</t>
         </is>
       </c>
       <c r="D21" s="7" t="inlineStr">
         <is>
-          <t>HVD204</t>
+          <t>HVK304</t>
         </is>
       </c>
       <c r="E21" s="7" t="inlineStr">
@@ -1402,44 +1402,44 @@
       </c>
       <c r="F21" s="7" t="inlineStr">
         <is>
-          <t>2023/11/03</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="G21" s="8" t="n">
-        <v>387526.7</v>
+        <v>542265.41</v>
       </c>
       <c r="H21" s="8" t="n">
-        <v>324145.21</v>
+        <v>450000</v>
       </c>
       <c r="I21" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="7" t="n">
         <v>14</v>
       </c>
       <c r="K21" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
         <is>
-          <t>ZSCH01</t>
+          <t>ZNAT01</t>
         </is>
       </c>
       <c r="B22" s="7" t="inlineStr">
         <is>
-          <t>Inge</t>
+          <t>Thandekile Evelyn</t>
         </is>
       </c>
       <c r="C22" s="7" t="inlineStr">
         <is>
-          <t>Schubert</t>
+          <t>Hlapolosa</t>
         </is>
       </c>
       <c r="D22" s="7" t="inlineStr">
         <is>
-          <t>HVJ102</t>
+          <t>HVD204</t>
         </is>
       </c>
       <c r="E22" s="7" t="inlineStr">
@@ -1449,44 +1449,44 @@
       </c>
       <c r="F22" s="7" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2023/11/03</t>
         </is>
       </c>
       <c r="G22" s="8" t="n">
-        <v>886657.64</v>
+        <v>387526.7</v>
       </c>
       <c r="H22" s="8" t="n">
-        <v>642671.4</v>
+        <v>324145.21</v>
       </c>
       <c r="I22" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J22" s="7" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K22" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>ZWEL01</t>
+          <t>ZSCH01</t>
         </is>
       </c>
       <c r="B23" s="7" t="inlineStr">
         <is>
-          <t>Christopher John</t>
+          <t>Inge</t>
         </is>
       </c>
       <c r="C23" s="7" t="inlineStr">
         <is>
-          <t>Welham</t>
+          <t>Schubert</t>
         </is>
       </c>
       <c r="D23" s="7" t="inlineStr">
         <is>
-          <t>HVD302</t>
+          <t>HVJ102</t>
         </is>
       </c>
       <c r="E23" s="7" t="inlineStr">
@@ -1496,20 +1496,20 @@
       </c>
       <c r="F23" s="7" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="G23" s="8" t="n">
-        <v>464134.29</v>
+        <v>886657.64</v>
       </c>
       <c r="H23" s="8" t="n">
-        <v>353616.9</v>
+        <v>642671.4</v>
       </c>
       <c r="I23" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J23" s="7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K23" s="7" t="b">
         <v>0</v>
@@ -1518,48 +1518,48 @@
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
         <is>
-          <t>ZWAT01</t>
+          <t>ZWEL01</t>
         </is>
       </c>
       <c r="B24" s="7" t="inlineStr">
         <is>
-          <t>Peter Gregory</t>
+          <t>Christopher John</t>
         </is>
       </c>
       <c r="C24" s="7" t="inlineStr">
         <is>
-          <t>Watts</t>
+          <t>Welham</t>
         </is>
       </c>
       <c r="D24" s="7" t="inlineStr">
         <is>
-          <t>EB203</t>
+          <t>HVD302</t>
         </is>
       </c>
       <c r="E24" s="7" t="inlineStr">
         <is>
-          <t>Endulini</t>
+          <t>Heron View</t>
         </is>
       </c>
       <c r="F24" s="7" t="inlineStr">
         <is>
-          <t>2022/12/09</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="G24" s="8" t="n">
-        <v>835021.99</v>
+        <v>464134.29</v>
       </c>
       <c r="H24" s="8" t="n">
-        <v>755844.67</v>
+        <v>353616.9</v>
       </c>
       <c r="I24" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J24" s="7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K24" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1580,24 +1580,24 @@
       </c>
       <c r="D25" s="7" t="inlineStr">
         <is>
-          <t>HVD101</t>
+          <t>EB203</t>
         </is>
       </c>
       <c r="E25" s="7" t="inlineStr">
         <is>
-          <t>Heron View</t>
+          <t>Endulini</t>
         </is>
       </c>
       <c r="F25" s="7" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2022/12/09</t>
         </is>
       </c>
       <c r="G25" s="8" t="n">
-        <v>920898.91</v>
+        <v>835021.99</v>
       </c>
       <c r="H25" s="8" t="n">
-        <v>715859.1899999999</v>
+        <v>755844.67</v>
       </c>
       <c r="I25" s="7" t="b">
         <v>1</v>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D26" s="7" t="inlineStr">
         <is>
-          <t>HVN103</t>
+          <t>HVD101</t>
         </is>
       </c>
       <c r="E26" s="7" t="inlineStr">
@@ -1641,10 +1641,10 @@
         </is>
       </c>
       <c r="G26" s="8" t="n">
-        <v>889121.53</v>
+        <v>920898.91</v>
       </c>
       <c r="H26" s="8" t="n">
-        <v>700980.33</v>
+        <v>715859.1899999999</v>
       </c>
       <c r="I26" s="7" t="b">
         <v>1</v>
@@ -1659,22 +1659,22 @@
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
-          <t>ZVDW01</t>
+          <t>ZWAT01</t>
         </is>
       </c>
       <c r="B27" s="7" t="inlineStr">
         <is>
-          <t>Philip</t>
+          <t>Peter Gregory</t>
         </is>
       </c>
       <c r="C27" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">van der Walt </t>
+          <t>Watts</t>
         </is>
       </c>
       <c r="D27" s="7" t="inlineStr">
         <is>
-          <t>HVK205</t>
+          <t>HVN103</t>
         </is>
       </c>
       <c r="E27" s="7" t="inlineStr">
@@ -1684,70 +1684,70 @@
       </c>
       <c r="F27" s="7" t="inlineStr">
         <is>
-          <t>2024/06/21</t>
+          <t>2023/12/12</t>
         </is>
       </c>
       <c r="G27" s="8" t="n">
-        <v>1243059.58</v>
+        <v>889121.53</v>
       </c>
       <c r="H27" s="8" t="n">
-        <v>1000500</v>
+        <v>700980.33</v>
       </c>
       <c r="I27" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="7" t="n">
         <v>18</v>
       </c>
       <c r="K27" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
         <is>
-          <t>ZSON01</t>
+          <t>ZVDW01</t>
         </is>
       </c>
       <c r="B28" s="7" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>Philip</t>
         </is>
       </c>
       <c r="C28" s="7" t="inlineStr">
         <is>
-          <t>Maduna</t>
+          <t xml:space="preserve">van der Walt </t>
         </is>
       </c>
       <c r="D28" s="7" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>HVK205</t>
         </is>
       </c>
       <c r="E28" s="7" t="inlineStr">
         <is>
-          <t>Endulini</t>
+          <t>Heron View</t>
         </is>
       </c>
       <c r="F28" s="7" t="inlineStr">
         <is>
-          <t>2023/05/08</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="G28" s="8" t="n">
-        <v>1139635.2</v>
+        <v>1243059.58</v>
       </c>
       <c r="H28" s="8" t="n">
-        <v>844602.74</v>
+        <v>1000500</v>
       </c>
       <c r="I28" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="n">
         <v>18</v>
       </c>
       <c r="K28" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1768,24 +1768,24 @@
       </c>
       <c r="D29" s="7" t="inlineStr">
         <is>
-          <t>HVD301</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="E29" s="7" t="inlineStr">
         <is>
-          <t>Heron View</t>
+          <t>Endulini</t>
         </is>
       </c>
       <c r="F29" s="7" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2023/05/08</t>
         </is>
       </c>
       <c r="G29" s="8" t="n">
-        <v>1283821.92</v>
+        <v>1139635.2</v>
       </c>
       <c r="H29" s="8" t="n">
-        <v>1000000</v>
+        <v>844602.74</v>
       </c>
       <c r="I29" s="7" t="b">
         <v>1</v>
@@ -1800,45 +1800,45 @@
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
         <is>
-          <t>ZVOR01</t>
+          <t>ZSON01</t>
         </is>
       </c>
       <c r="B30" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sophia Maria Catharina </t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="C30" s="7" t="inlineStr">
         <is>
-          <t>Vorster</t>
+          <t>Maduna</t>
         </is>
       </c>
       <c r="D30" s="7" t="inlineStr">
         <is>
-          <t>HFB307</t>
+          <t>HVD301</t>
         </is>
       </c>
       <c r="E30" s="7" t="inlineStr">
         <is>
-          <t>Heron Fields</t>
+          <t>Heron View</t>
         </is>
       </c>
       <c r="F30" s="7" t="inlineStr">
         <is>
-          <t>2023/04/04</t>
+          <t>2024/01/08</t>
         </is>
       </c>
       <c r="G30" s="8" t="n">
-        <v>238516.44</v>
+        <v>1283821.92</v>
       </c>
       <c r="H30" s="8" t="n">
-        <v>200000</v>
+        <v>1000000</v>
       </c>
       <c r="I30" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J30" s="7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K30" s="7" t="b">
         <v>1</v>
@@ -1847,22 +1847,22 @@
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
         <is>
-          <t>ZMAR01</t>
+          <t>ZVOR01</t>
         </is>
       </c>
       <c r="B31" s="7" t="inlineStr">
         <is>
-          <t>Beverley-Ann Kinsla</t>
+          <t xml:space="preserve">Sophia Maria Catharina </t>
         </is>
       </c>
       <c r="C31" s="7" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Vorster</t>
         </is>
       </c>
       <c r="D31" s="7" t="inlineStr">
         <is>
-          <t>HFA202</t>
+          <t>HFB307</t>
         </is>
       </c>
       <c r="E31" s="7" t="inlineStr">
@@ -1872,11 +1872,11 @@
       </c>
       <c r="F31" s="7" t="inlineStr">
         <is>
-          <t>2022/11/30</t>
+          <t>2023/04/04</t>
         </is>
       </c>
       <c r="G31" s="8" t="n">
-        <v>263202.74</v>
+        <v>238516.44</v>
       </c>
       <c r="H31" s="8" t="n">
         <v>200000</v>
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K31" s="7" t="b">
         <v>1</v>
@@ -1894,86 +1894,86 @@
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
         <is>
-          <t>ZMCD02</t>
+          <t>ZMAR01</t>
         </is>
       </c>
       <c r="B32" s="7" t="inlineStr">
         <is>
-          <t>Andre (Josias Andreas)</t>
+          <t>Beverley-Ann Kinsla</t>
         </is>
       </c>
       <c r="C32" s="7" t="inlineStr">
         <is>
-          <t>McDonald</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="D32" s="7" t="inlineStr">
         <is>
-          <t>HVJ102</t>
+          <t>HFA202</t>
         </is>
       </c>
       <c r="E32" s="7" t="inlineStr">
         <is>
-          <t>Heron View</t>
+          <t>Heron Fields</t>
         </is>
       </c>
       <c r="F32" s="7" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2022/11/30</t>
         </is>
       </c>
       <c r="G32" s="8" t="n">
-        <v>129950.68</v>
+        <v>263202.74</v>
       </c>
       <c r="H32" s="8" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I32" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J32" s="7" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K32" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
         <is>
-          <t>ZJER01</t>
+          <t>ZMCD02</t>
         </is>
       </c>
       <c r="B33" s="7" t="inlineStr">
         <is>
-          <t>Towela Patricia Rosemarie</t>
+          <t>Andre (Josias Andreas)</t>
         </is>
       </c>
       <c r="C33" s="7" t="inlineStr">
         <is>
-          <t>Jere</t>
+          <t>McDonald</t>
         </is>
       </c>
       <c r="D33" s="7" t="inlineStr">
         <is>
-          <t>EB102</t>
+          <t>HVJ102</t>
         </is>
       </c>
       <c r="E33" s="7" t="inlineStr">
         <is>
-          <t>Endulini</t>
+          <t>Heron View</t>
         </is>
       </c>
       <c r="F33" s="7" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="G33" s="8" t="n">
-        <v>151059.79</v>
+        <v>129950.68</v>
       </c>
       <c r="H33" s="8" t="n">
-        <v>120047.95</v>
+        <v>100000</v>
       </c>
       <c r="I33" s="7" t="b">
         <v>1</v>
@@ -1982,45 +1982,45 @@
         <v>14</v>
       </c>
       <c r="K33" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="7" t="inlineStr">
         <is>
-          <t>ZKUS03</t>
+          <t>ZJER01</t>
         </is>
       </c>
       <c r="B34" s="7" t="inlineStr">
         <is>
-          <t>Joanne Tracy</t>
+          <t>Towela Patricia Rosemarie</t>
         </is>
       </c>
       <c r="C34" s="7" t="inlineStr">
         <is>
-          <t>Kuster</t>
+          <t>Jere</t>
         </is>
       </c>
       <c r="D34" s="7" t="inlineStr">
         <is>
-          <t>HVJ102</t>
+          <t>EB102</t>
         </is>
       </c>
       <c r="E34" s="7" t="inlineStr">
         <is>
-          <t>Heron View</t>
+          <t>Endulini</t>
         </is>
       </c>
       <c r="F34" s="7" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2024/02/13</t>
         </is>
       </c>
       <c r="G34" s="8" t="n">
-        <v>213995.48</v>
+        <v>151059.79</v>
       </c>
       <c r="H34" s="8" t="n">
-        <v>164674.38</v>
+        <v>120047.95</v>
       </c>
       <c r="I34" s="7" t="b">
         <v>1</v>
@@ -2029,28 +2029,28 @@
         <v>14</v>
       </c>
       <c r="K34" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="7" t="inlineStr">
         <is>
-          <t>ZHAR01</t>
+          <t>ZKUS03</t>
         </is>
       </c>
       <c r="B35" s="7" t="inlineStr">
         <is>
-          <t>Teresa-Ann</t>
+          <t>Joanne Tracy</t>
         </is>
       </c>
       <c r="C35" s="7" t="inlineStr">
         <is>
-          <t>Hart</t>
+          <t>Kuster</t>
         </is>
       </c>
       <c r="D35" s="7" t="inlineStr">
         <is>
-          <t>HVD202</t>
+          <t>HVJ102</t>
         </is>
       </c>
       <c r="E35" s="7" t="inlineStr">
@@ -2060,14 +2060,14 @@
       </c>
       <c r="F35" s="7" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="G35" s="8" t="n">
-        <v>161720.53</v>
+        <v>213995.48</v>
       </c>
       <c r="H35" s="8" t="n">
-        <v>126369.86</v>
+        <v>164674.38</v>
       </c>
       <c r="I35" s="7" t="b">
         <v>1</v>
@@ -2076,45 +2076,45 @@
         <v>14</v>
       </c>
       <c r="K35" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="7" t="inlineStr">
         <is>
-          <t>ZROD01</t>
+          <t>ZHAR01</t>
         </is>
       </c>
       <c r="B36" s="7" t="inlineStr">
         <is>
-          <t>Vuyisile Eustace</t>
+          <t>Teresa-Ann</t>
         </is>
       </c>
       <c r="C36" s="7" t="inlineStr">
         <is>
-          <t>Rodolo</t>
+          <t>Hart</t>
         </is>
       </c>
       <c r="D36" s="7" t="inlineStr">
         <is>
-          <t>EB101</t>
+          <t>HVD202</t>
         </is>
       </c>
       <c r="E36" s="7" t="inlineStr">
         <is>
-          <t>Endulini</t>
+          <t>Heron View</t>
         </is>
       </c>
       <c r="F36" s="7" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="G36" s="8" t="n">
-        <v>139986.32</v>
+        <v>161720.53</v>
       </c>
       <c r="H36" s="8" t="n">
-        <v>114385.83</v>
+        <v>126369.86</v>
       </c>
       <c r="I36" s="7" t="b">
         <v>1</v>
@@ -2129,22 +2129,22 @@
     <row r="37">
       <c r="A37" s="7" t="inlineStr">
         <is>
-          <t>ZATK01</t>
+          <t>ZROD01</t>
         </is>
       </c>
       <c r="B37" s="7" t="inlineStr">
         <is>
-          <t>Genevieve Dee</t>
+          <t>Vuyisile Eustace</t>
         </is>
       </c>
       <c r="C37" s="7" t="inlineStr">
         <is>
-          <t>Atkinson</t>
+          <t>Rodolo</t>
         </is>
       </c>
       <c r="D37" s="7" t="inlineStr">
         <is>
-          <t>EA205</t>
+          <t>EB101</t>
         </is>
       </c>
       <c r="E37" s="7" t="inlineStr">
@@ -2154,14 +2154,14 @@
       </c>
       <c r="F37" s="7" t="inlineStr">
         <is>
-          <t>2023/08/28</t>
+          <t>2023/12/12</t>
         </is>
       </c>
       <c r="G37" s="8" t="n">
-        <v>355095.07</v>
+        <v>139986.32</v>
       </c>
       <c r="H37" s="8" t="n">
-        <v>340000</v>
+        <v>114385.83</v>
       </c>
       <c r="I37" s="7" t="b">
         <v>1</v>
@@ -2176,39 +2176,39 @@
     <row r="38">
       <c r="A38" s="7" t="inlineStr">
         <is>
-          <t>ZVER02</t>
+          <t>ZATK01</t>
         </is>
       </c>
       <c r="B38" s="7" t="inlineStr">
         <is>
-          <t>Jean-Jacques EP</t>
+          <t>Genevieve Dee</t>
         </is>
       </c>
       <c r="C38" s="7" t="inlineStr">
         <is>
-          <t>Verhaeghe</t>
+          <t>Atkinson</t>
         </is>
       </c>
       <c r="D38" s="7" t="inlineStr">
         <is>
-          <t>HFA304</t>
+          <t>EA205</t>
         </is>
       </c>
       <c r="E38" s="7" t="inlineStr">
         <is>
-          <t>Heron Fields</t>
+          <t>Endulini</t>
         </is>
       </c>
       <c r="F38" s="7" t="inlineStr">
         <is>
-          <t>2023/01/25</t>
+          <t>2023/08/28</t>
         </is>
       </c>
       <c r="G38" s="8" t="n">
-        <v>117916.44</v>
+        <v>355095.07</v>
       </c>
       <c r="H38" s="8" t="n">
-        <v>100000</v>
+        <v>340000</v>
       </c>
       <c r="I38" s="7" t="b">
         <v>1</v>
@@ -2223,36 +2223,36 @@
     <row r="39">
       <c r="A39" s="7" t="inlineStr">
         <is>
-          <t>ZALM01</t>
+          <t>ZVER02</t>
         </is>
       </c>
       <c r="B39" s="7" t="inlineStr">
         <is>
-          <t>Marc</t>
+          <t>Jean-Jacques EP</t>
         </is>
       </c>
       <c r="C39" s="7" t="inlineStr">
         <is>
-          <t>Lunau</t>
+          <t>Verhaeghe</t>
         </is>
       </c>
       <c r="D39" s="7" t="inlineStr">
         <is>
-          <t>EB201</t>
+          <t>HFA304</t>
         </is>
       </c>
       <c r="E39" s="7" t="inlineStr">
         <is>
-          <t>Endulini</t>
+          <t>Heron Fields</t>
         </is>
       </c>
       <c r="F39" s="7" t="inlineStr">
         <is>
-          <t>2022/12/09</t>
+          <t>2023/01/25</t>
         </is>
       </c>
       <c r="G39" s="8" t="n">
-        <v>110597.26</v>
+        <v>117916.44</v>
       </c>
       <c r="H39" s="8" t="n">
         <v>100000</v>
@@ -2261,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="7" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K39" s="7" t="b">
         <v>1</v>
@@ -2270,69 +2270,69 @@
     <row r="40">
       <c r="A40" s="7" t="inlineStr">
         <is>
-          <t>ZALM01</t>
+          <t>ZELE01</t>
         </is>
       </c>
       <c r="B40" s="7" t="inlineStr">
         <is>
-          <t>Marc</t>
+          <t>Emile Kenneth</t>
         </is>
       </c>
       <c r="C40" s="7" t="inlineStr">
         <is>
-          <t>Lunau</t>
+          <t>Lew</t>
         </is>
       </c>
       <c r="D40" s="7" t="inlineStr">
         <is>
-          <t>EB203</t>
+          <t>HVK103</t>
         </is>
       </c>
       <c r="E40" s="7" t="inlineStr">
         <is>
-          <t>Endulini</t>
+          <t>Heron View</t>
         </is>
       </c>
       <c r="F40" s="7" t="inlineStr">
         <is>
-          <t>2022/12/09</t>
+          <t>2024/08/26</t>
         </is>
       </c>
       <c r="G40" s="8" t="n">
-        <v>110597.26</v>
+        <v>247902.74</v>
       </c>
       <c r="H40" s="8" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I40" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="7" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K40" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="7" t="inlineStr">
         <is>
-          <t>ZROB01</t>
+          <t>ZALM01</t>
         </is>
       </c>
       <c r="B41" s="7" t="inlineStr">
         <is>
-          <t>John Robert</t>
+          <t>Marc</t>
         </is>
       </c>
       <c r="C41" s="7" t="inlineStr">
         <is>
-          <t>Zylstra</t>
+          <t>Lunau</t>
         </is>
       </c>
       <c r="D41" s="7" t="inlineStr">
         <is>
-          <t>ED203</t>
+          <t>EB201</t>
         </is>
       </c>
       <c r="E41" s="7" t="inlineStr">
@@ -2342,14 +2342,14 @@
       </c>
       <c r="F41" s="7" t="inlineStr">
         <is>
-          <t>2023/03/24</t>
+          <t>2022/12/09</t>
         </is>
       </c>
       <c r="G41" s="8" t="n">
-        <v>1400931.51</v>
+        <v>110597.26</v>
       </c>
       <c r="H41" s="8" t="n">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="I41" s="7" t="b">
         <v>1</v>
@@ -2364,39 +2364,39 @@
     <row r="42">
       <c r="A42" s="7" t="inlineStr">
         <is>
-          <t>ZJOH01</t>
+          <t>ZALM01</t>
         </is>
       </c>
       <c r="B42" s="7" t="inlineStr">
         <is>
-          <t>Lisa-Marie Natalie</t>
+          <t>Marc</t>
         </is>
       </c>
       <c r="C42" s="7" t="inlineStr">
         <is>
-          <t>Johns</t>
+          <t>Lunau</t>
         </is>
       </c>
       <c r="D42" s="7" t="inlineStr">
         <is>
-          <t>HFB105</t>
+          <t>EB203</t>
         </is>
       </c>
       <c r="E42" s="7" t="inlineStr">
         <is>
-          <t>Heron Fields</t>
+          <t>Endulini</t>
         </is>
       </c>
       <c r="F42" s="7" t="inlineStr">
         <is>
-          <t>2023/01/27</t>
+          <t>2022/12/09</t>
         </is>
       </c>
       <c r="G42" s="8" t="n">
-        <v>148378.7</v>
+        <v>110597.26</v>
       </c>
       <c r="H42" s="8" t="n">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="I42" s="7" t="b">
         <v>1</v>
@@ -2411,39 +2411,39 @@
     <row r="43">
       <c r="A43" s="7" t="inlineStr">
         <is>
-          <t>ZJOH01</t>
+          <t>ZROB01</t>
         </is>
       </c>
       <c r="B43" s="7" t="inlineStr">
         <is>
-          <t>Lisa-Marie Natalie</t>
+          <t>John Robert</t>
         </is>
       </c>
       <c r="C43" s="7" t="inlineStr">
         <is>
-          <t>Johns</t>
+          <t>Zylstra</t>
         </is>
       </c>
       <c r="D43" s="7" t="inlineStr">
         <is>
-          <t>HFB108</t>
+          <t>ED203</t>
         </is>
       </c>
       <c r="E43" s="7" t="inlineStr">
         <is>
-          <t>Heron Fields</t>
+          <t>Endulini</t>
         </is>
       </c>
       <c r="F43" s="7" t="inlineStr">
         <is>
-          <t>2023/01/27</t>
+          <t>2023/03/24</t>
         </is>
       </c>
       <c r="G43" s="8" t="n">
-        <v>148378.7</v>
+        <v>1400931.51</v>
       </c>
       <c r="H43" s="8" t="n">
-        <v>110000</v>
+        <v>1000000</v>
       </c>
       <c r="I43" s="7" t="b">
         <v>1</v>
@@ -2458,257 +2458,257 @@
     <row r="44">
       <c r="A44" s="7" t="inlineStr">
         <is>
-          <t>ZSCH02</t>
+          <t>ZJOH01</t>
         </is>
       </c>
       <c r="B44" s="7" t="inlineStr">
         <is>
-          <t>Zeldre</t>
+          <t>Lisa-Marie Natalie</t>
         </is>
       </c>
       <c r="C44" s="7" t="inlineStr">
         <is>
-          <t>van Schalkwyk</t>
+          <t>Johns</t>
         </is>
       </c>
       <c r="D44" s="7" t="inlineStr">
         <is>
-          <t>HVK304</t>
+          <t>HFB105</t>
         </is>
       </c>
       <c r="E44" s="7" t="inlineStr">
         <is>
-          <t>Heron View</t>
+          <t>Heron Fields</t>
         </is>
       </c>
       <c r="F44" s="7" t="inlineStr">
         <is>
-          <t>2024/06/21</t>
+          <t>2023/01/27</t>
         </is>
       </c>
       <c r="G44" s="8" t="n">
-        <v>798377.05</v>
+        <v>148378.7</v>
       </c>
       <c r="H44" s="8" t="n">
-        <v>648863.01</v>
+        <v>110000</v>
       </c>
       <c r="I44" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K44" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="7" t="inlineStr">
         <is>
-          <t>ZZYL03</t>
+          <t>ZJOH01</t>
         </is>
       </c>
       <c r="B45" s="7" t="inlineStr">
         <is>
-          <t>Sandra Robyn</t>
+          <t>Lisa-Marie Natalie</t>
         </is>
       </c>
       <c r="C45" s="7" t="inlineStr">
         <is>
-          <t>Zylstra</t>
+          <t>Johns</t>
         </is>
       </c>
       <c r="D45" s="7" t="inlineStr">
         <is>
-          <t>HVK106</t>
+          <t>HFB108</t>
         </is>
       </c>
       <c r="E45" s="7" t="inlineStr">
         <is>
-          <t>Heron View</t>
+          <t>Heron Fields</t>
         </is>
       </c>
       <c r="F45" s="7" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2023/01/27</t>
         </is>
       </c>
       <c r="G45" s="8" t="n">
-        <v>1404386.12</v>
+        <v>148378.7</v>
       </c>
       <c r="H45" s="8" t="n">
-        <v>1107195.21</v>
+        <v>110000</v>
       </c>
       <c r="I45" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" s="7" t="n">
         <v>18</v>
       </c>
       <c r="K45" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="7" t="inlineStr">
         <is>
-          <t>ZJHO01</t>
+          <t>ZJOH01</t>
         </is>
       </c>
       <c r="B46" s="7" t="inlineStr">
         <is>
-          <t>Jean</t>
+          <t>Lisa-Marie Natalie</t>
         </is>
       </c>
       <c r="C46" s="7" t="inlineStr">
         <is>
-          <t>Hoets</t>
+          <t>Johns</t>
         </is>
       </c>
       <c r="D46" s="7" t="inlineStr">
         <is>
-          <t>HFA304</t>
+          <t>HVK103</t>
         </is>
       </c>
       <c r="E46" s="7" t="inlineStr">
         <is>
-          <t>Heron Fields</t>
+          <t>Heron View</t>
         </is>
       </c>
       <c r="F46" s="7" t="inlineStr">
         <is>
-          <t>2022/12/20</t>
+          <t>2024/08/26</t>
         </is>
       </c>
       <c r="G46" s="8" t="n">
-        <v>358716.44</v>
+        <v>142458.29</v>
       </c>
       <c r="H46" s="8" t="n">
-        <v>350000</v>
+        <v>110000</v>
       </c>
       <c r="I46" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" s="7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K46" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="7" t="inlineStr">
         <is>
-          <t>ZKRO01</t>
+          <t>ZSCH02</t>
         </is>
       </c>
       <c r="B47" s="7" t="inlineStr">
         <is>
-          <t>Frans</t>
+          <t>Zeldre</t>
         </is>
       </c>
       <c r="C47" s="7" t="inlineStr">
         <is>
-          <t>van der Merwe</t>
+          <t>van Schalkwyk</t>
         </is>
       </c>
       <c r="D47" s="7" t="inlineStr">
         <is>
-          <t>HFA304</t>
+          <t>HVK304</t>
         </is>
       </c>
       <c r="E47" s="7" t="inlineStr">
         <is>
-          <t>Heron Fields</t>
+          <t>Heron View</t>
         </is>
       </c>
       <c r="F47" s="7" t="inlineStr">
         <is>
-          <t>2023/01/25</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="G47" s="8" t="n">
-        <v>189647.26</v>
+        <v>798377.05</v>
       </c>
       <c r="H47" s="8" t="n">
-        <v>150000</v>
+        <v>648863.01</v>
       </c>
       <c r="I47" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" s="7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K47" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="7" t="inlineStr">
         <is>
-          <t>ZPED01</t>
+          <t>ZZYL03</t>
         </is>
       </c>
       <c r="B48" s="7" t="inlineStr">
         <is>
-          <t>Wendy</t>
+          <t>Sandra Robyn</t>
         </is>
       </c>
       <c r="C48" s="7" t="inlineStr">
         <is>
-          <t>Pedersen</t>
+          <t>Zylstra</t>
         </is>
       </c>
       <c r="D48" s="7" t="inlineStr">
         <is>
-          <t>HFA304</t>
+          <t>HVK106</t>
         </is>
       </c>
       <c r="E48" s="7" t="inlineStr">
         <is>
-          <t>Heron Fields</t>
+          <t>Heron View</t>
         </is>
       </c>
       <c r="F48" s="7" t="inlineStr">
         <is>
-          <t>2023/01/25</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="G48" s="8" t="n">
-        <v>131234.93</v>
+        <v>1404386.12</v>
       </c>
       <c r="H48" s="8" t="n">
-        <v>100000</v>
+        <v>1107195.21</v>
       </c>
       <c r="I48" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" s="7" t="n">
         <v>18</v>
       </c>
       <c r="K48" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="7" t="inlineStr">
         <is>
-          <t>ZHEY01</t>
+          <t>ZJHO01</t>
         </is>
       </c>
       <c r="B49" s="7" t="inlineStr">
         <is>
-          <t>Vincent Derick</t>
+          <t>Jean</t>
         </is>
       </c>
       <c r="C49" s="7" t="inlineStr">
         <is>
-          <t>Heynes</t>
+          <t>Hoets</t>
         </is>
       </c>
       <c r="D49" s="7" t="inlineStr">
         <is>
-          <t>HFA205</t>
+          <t>HFA304</t>
         </is>
       </c>
       <c r="E49" s="7" t="inlineStr">
@@ -2718,14 +2718,14 @@
       </c>
       <c r="F49" s="7" t="inlineStr">
         <is>
-          <t>2022/08/31</t>
+          <t>2022/12/20</t>
         </is>
       </c>
       <c r="G49" s="8" t="n">
-        <v>119910.96</v>
+        <v>358716.44</v>
       </c>
       <c r="H49" s="8" t="n">
-        <v>100000</v>
+        <v>350000</v>
       </c>
       <c r="I49" s="7" t="b">
         <v>1</v>
@@ -2740,45 +2740,45 @@
     <row r="50">
       <c r="A50" s="7" t="inlineStr">
         <is>
-          <t>ZGMA01</t>
+          <t>ZKRO01</t>
         </is>
       </c>
       <c r="B50" s="7" t="inlineStr">
         <is>
-          <t>Gerald Adriaan Odendal</t>
+          <t>Frans</t>
         </is>
       </c>
       <c r="C50" s="7" t="inlineStr">
         <is>
-          <t>Matthee</t>
+          <t>van der Merwe</t>
         </is>
       </c>
       <c r="D50" s="7" t="inlineStr">
         <is>
-          <t>HVD104</t>
+          <t>HFA304</t>
         </is>
       </c>
       <c r="E50" s="7" t="inlineStr">
         <is>
-          <t>Heron View</t>
+          <t>Heron Fields</t>
         </is>
       </c>
       <c r="F50" s="7" t="inlineStr">
         <is>
-          <t>2024/02/01</t>
+          <t>2023/01/25</t>
         </is>
       </c>
       <c r="G50" s="8" t="n">
-        <v>248175.34</v>
+        <v>189647.26</v>
       </c>
       <c r="H50" s="8" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="I50" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J50" s="7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K50" s="7" t="b">
         <v>1</v>
@@ -2787,86 +2787,86 @@
     <row r="51">
       <c r="A51" s="7" t="inlineStr">
         <is>
-          <t>ZPLA01</t>
+          <t>ZPED01</t>
         </is>
       </c>
       <c r="B51" s="7" t="inlineStr">
         <is>
-          <t>Aneta</t>
+          <t>Wendy</t>
         </is>
       </c>
       <c r="C51" s="7" t="inlineStr">
         <is>
-          <t>Placzkowska</t>
+          <t>Pedersen</t>
         </is>
       </c>
       <c r="D51" s="7" t="inlineStr">
         <is>
-          <t>HVD303</t>
+          <t>HFA304</t>
         </is>
       </c>
       <c r="E51" s="7" t="inlineStr">
         <is>
-          <t>Heron View</t>
+          <t>Heron Fields</t>
         </is>
       </c>
       <c r="F51" s="7" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2023/01/25</t>
         </is>
       </c>
       <c r="G51" s="8" t="n">
-        <v>789706.85</v>
+        <v>131234.93</v>
       </c>
       <c r="H51" s="8" t="n">
-        <v>600000</v>
+        <v>100000</v>
       </c>
       <c r="I51" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J51" s="7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K51" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="7" t="inlineStr">
         <is>
-          <t>ZTPI01</t>
+          <t>ZHEY01</t>
         </is>
       </c>
       <c r="B52" s="7" t="inlineStr">
         <is>
-          <t>Raisibe Ellen</t>
+          <t>Vincent Derick</t>
         </is>
       </c>
       <c r="C52" s="7" t="inlineStr">
         <is>
-          <t>Matlala</t>
+          <t>Heynes</t>
         </is>
       </c>
       <c r="D52" s="7" t="inlineStr">
         <is>
-          <t>EA107</t>
+          <t>HFA205</t>
         </is>
       </c>
       <c r="E52" s="7" t="inlineStr">
         <is>
-          <t>Endulini</t>
+          <t>Heron Fields</t>
         </is>
       </c>
       <c r="F52" s="7" t="inlineStr">
         <is>
-          <t>2023/09/07</t>
+          <t>2022/08/31</t>
         </is>
       </c>
       <c r="G52" s="8" t="n">
-        <v>322594.18</v>
+        <v>119910.96</v>
       </c>
       <c r="H52" s="8" t="n">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="I52" s="7" t="b">
         <v>1</v>
@@ -2881,36 +2881,36 @@
     <row r="53">
       <c r="A53" s="7" t="inlineStr">
         <is>
-          <t>ZRAN01</t>
+          <t>ZGMA01</t>
         </is>
       </c>
       <c r="B53" s="7" t="inlineStr">
         <is>
-          <t>Ross Partick Gemill</t>
+          <t>Gerald Adriaan Odendal</t>
         </is>
       </c>
       <c r="C53" s="7" t="inlineStr">
         <is>
-          <t>Rankin</t>
+          <t>Matthee</t>
         </is>
       </c>
       <c r="D53" s="7" t="inlineStr">
         <is>
-          <t>EC302</t>
+          <t>HVD104</t>
         </is>
       </c>
       <c r="E53" s="7" t="inlineStr">
         <is>
-          <t>Endulini</t>
+          <t>Heron View</t>
         </is>
       </c>
       <c r="F53" s="7" t="inlineStr">
         <is>
-          <t>2023/04/04</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="G53" s="8" t="n">
-        <v>252491.78</v>
+        <v>248175.34</v>
       </c>
       <c r="H53" s="8" t="n">
         <v>200000</v>
@@ -2919,7 +2919,7 @@
         <v>1</v>
       </c>
       <c r="J53" s="7" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K53" s="7" t="b">
         <v>1</v>
@@ -2928,69 +2928,69 @@
     <row r="54">
       <c r="A54" s="7" t="inlineStr">
         <is>
-          <t>ZRAN01</t>
+          <t>ZPLA01</t>
         </is>
       </c>
       <c r="B54" s="7" t="inlineStr">
         <is>
-          <t>Ross Partick Gemill</t>
+          <t>Aneta</t>
         </is>
       </c>
       <c r="C54" s="7" t="inlineStr">
         <is>
-          <t>Rankin</t>
+          <t>Placzkowska</t>
         </is>
       </c>
       <c r="D54" s="7" t="inlineStr">
         <is>
-          <t>HFB104</t>
+          <t>HVD303</t>
         </is>
       </c>
       <c r="E54" s="7" t="inlineStr">
         <is>
-          <t>Heron Fields</t>
+          <t>Heron View</t>
         </is>
       </c>
       <c r="F54" s="7" t="inlineStr">
         <is>
-          <t>2022/11/30</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="G54" s="8" t="n">
-        <v>114452.74</v>
+        <v>789706.85</v>
       </c>
       <c r="H54" s="8" t="n">
-        <v>100000</v>
+        <v>600000</v>
       </c>
       <c r="I54" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J54" s="7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K54" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="7" t="inlineStr">
         <is>
-          <t>ZRAN01</t>
+          <t>ZBRO01</t>
         </is>
       </c>
       <c r="B55" s="7" t="inlineStr">
         <is>
-          <t>Ross Partick Gemill</t>
+          <t>Craig Anthony Richard</t>
         </is>
       </c>
       <c r="C55" s="7" t="inlineStr">
         <is>
-          <t>Rankin</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="D55" s="7" t="inlineStr">
         <is>
-          <t>HVD304</t>
+          <t>HVJ301</t>
         </is>
       </c>
       <c r="E55" s="7" t="inlineStr">
@@ -3000,20 +3000,20 @@
       </c>
       <c r="F55" s="7" t="inlineStr">
         <is>
-          <t>2024/07/31</t>
+          <t>2024/08/26</t>
         </is>
       </c>
       <c r="G55" s="8" t="n">
-        <v>1177343.15</v>
+        <v>160664.88</v>
       </c>
       <c r="H55" s="8" t="n">
-        <v>850000</v>
+        <v>127553.41</v>
       </c>
       <c r="I55" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" s="7" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K55" s="7" t="b">
         <v>0</v>
@@ -3022,116 +3022,116 @@
     <row r="56">
       <c r="A56" s="7" t="inlineStr">
         <is>
-          <t>ZZYL02</t>
+          <t>ZTPI01</t>
         </is>
       </c>
       <c r="B56" s="7" t="inlineStr">
         <is>
-          <t>Petronella Johanna</t>
+          <t>Raisibe Ellen</t>
         </is>
       </c>
       <c r="C56" s="7" t="inlineStr">
         <is>
-          <t>Zylstra</t>
+          <t>Matlala</t>
         </is>
       </c>
       <c r="D56" s="7" t="inlineStr">
         <is>
-          <t>HVJ201</t>
+          <t>EA107</t>
         </is>
       </c>
       <c r="E56" s="7" t="inlineStr">
         <is>
-          <t>Heron View</t>
+          <t>Endulini</t>
         </is>
       </c>
       <c r="F56" s="7" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2023/09/07</t>
         </is>
       </c>
       <c r="G56" s="8" t="n">
-        <v>254216.44</v>
+        <v>322594.18</v>
       </c>
       <c r="H56" s="8" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="I56" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J56" s="7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K56" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="7" t="inlineStr">
         <is>
-          <t>ZZYL02</t>
+          <t>ZRAN01</t>
         </is>
       </c>
       <c r="B57" s="7" t="inlineStr">
         <is>
-          <t>Petronella Johanna</t>
+          <t>Ross Partick Gemill</t>
         </is>
       </c>
       <c r="C57" s="7" t="inlineStr">
         <is>
-          <t>Zylstra</t>
+          <t>Rankin</t>
         </is>
       </c>
       <c r="D57" s="7" t="inlineStr">
         <is>
-          <t>HVK205</t>
+          <t>EC302</t>
         </is>
       </c>
       <c r="E57" s="7" t="inlineStr">
         <is>
-          <t>Heron View</t>
+          <t>Endulini</t>
         </is>
       </c>
       <c r="F57" s="7" t="inlineStr">
         <is>
-          <t>2024/06/21</t>
+          <t>2023/04/04</t>
         </is>
       </c>
       <c r="G57" s="8" t="n">
-        <v>150288.87</v>
+        <v>252491.78</v>
       </c>
       <c r="H57" s="8" t="n">
-        <v>123613.01</v>
+        <v>200000</v>
       </c>
       <c r="I57" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" s="7" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K57" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="7" t="inlineStr">
         <is>
-          <t>ZMIN01</t>
+          <t>ZRAN01</t>
         </is>
       </c>
       <c r="B58" s="7" t="inlineStr">
         <is>
-          <t>Irene Petronella</t>
+          <t>Ross Partick Gemill</t>
         </is>
       </c>
       <c r="C58" s="7" t="inlineStr">
         <is>
-          <t>Minnaar</t>
+          <t>Rankin</t>
         </is>
       </c>
       <c r="D58" s="7" t="inlineStr">
         <is>
-          <t>HFB202</t>
+          <t>HFB104</t>
         </is>
       </c>
       <c r="E58" s="7" t="inlineStr">
@@ -3145,10 +3145,10 @@
         </is>
       </c>
       <c r="G58" s="8" t="n">
-        <v>635869.86</v>
+        <v>114452.74</v>
       </c>
       <c r="H58" s="8" t="n">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="I58" s="7" t="b">
         <v>1</v>
@@ -3163,39 +3163,39 @@
     <row r="59">
       <c r="A59" s="7" t="inlineStr">
         <is>
-          <t>ZCRO01</t>
+          <t>ZRAN01</t>
         </is>
       </c>
       <c r="B59" s="7" t="inlineStr">
         <is>
-          <t>Marc</t>
+          <t>Ross Partick Gemill</t>
         </is>
       </c>
       <c r="C59" s="7" t="inlineStr">
         <is>
-          <t>Lunau</t>
+          <t>Rankin</t>
         </is>
       </c>
       <c r="D59" s="7" t="inlineStr">
         <is>
-          <t>HFB108</t>
+          <t>HVD304</t>
         </is>
       </c>
       <c r="E59" s="7" t="inlineStr">
         <is>
-          <t>Heron Fields</t>
+          <t>Heron View</t>
         </is>
       </c>
       <c r="F59" s="7" t="inlineStr">
         <is>
-          <t>2023/01/27</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="G59" s="8" t="n">
-        <v>144222.05</v>
+        <v>1177343.15</v>
       </c>
       <c r="H59" s="8" t="n">
-        <v>110000</v>
+        <v>850000</v>
       </c>
       <c r="I59" s="7" t="b">
         <v>1</v>
@@ -3204,65 +3204,65 @@
         <v>18</v>
       </c>
       <c r="K59" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="7" t="inlineStr">
         <is>
-          <t>ZDEK01</t>
+          <t>ZZYL02</t>
         </is>
       </c>
       <c r="B60" s="7" t="inlineStr">
         <is>
-          <t>Dawn Margaret</t>
+          <t>Petronella Johanna</t>
         </is>
       </c>
       <c r="C60" s="7" t="inlineStr">
         <is>
-          <t>De Klerk (Way)</t>
+          <t>Zylstra</t>
         </is>
       </c>
       <c r="D60" s="7" t="inlineStr">
         <is>
-          <t>EA204</t>
+          <t>HVJ201</t>
         </is>
       </c>
       <c r="E60" s="7" t="inlineStr">
         <is>
-          <t>Endulini</t>
+          <t>Heron View</t>
         </is>
       </c>
       <c r="F60" s="7" t="inlineStr">
         <is>
-          <t>2023/09/14</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="G60" s="8" t="n">
-        <v>404718.49</v>
+        <v>254216.44</v>
       </c>
       <c r="H60" s="8" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="I60" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J60" s="7" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K60" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="7" t="inlineStr">
         <is>
-          <t>ZAFR01</t>
+          <t>ZZYL02</t>
         </is>
       </c>
       <c r="B61" s="7" t="inlineStr">
         <is>
-          <t>John Robert</t>
+          <t>Petronella Johanna</t>
         </is>
       </c>
       <c r="C61" s="7" t="inlineStr">
@@ -3272,54 +3272,54 @@
       </c>
       <c r="D61" s="7" t="inlineStr">
         <is>
-          <t>HFB211</t>
+          <t>HVK205</t>
         </is>
       </c>
       <c r="E61" s="7" t="inlineStr">
         <is>
-          <t>Heron Fields</t>
+          <t>Heron View</t>
         </is>
       </c>
       <c r="F61" s="7" t="inlineStr">
         <is>
-          <t>2023/04/19</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="G61" s="8" t="n">
-        <v>943566.4399999999</v>
+        <v>150288.87</v>
       </c>
       <c r="H61" s="8" t="n">
-        <v>700000</v>
+        <v>123613.01</v>
       </c>
       <c r="I61" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" s="7" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K61" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="7" t="inlineStr">
         <is>
-          <t>ZGIL01</t>
+          <t>ZMIN01</t>
         </is>
       </c>
       <c r="B62" s="7" t="inlineStr">
         <is>
-          <t>Estelle Maria</t>
+          <t>Irene Petronella</t>
         </is>
       </c>
       <c r="C62" s="7" t="inlineStr">
         <is>
-          <t>Gildenhuys</t>
+          <t>Minnaar</t>
         </is>
       </c>
       <c r="D62" s="7" t="inlineStr">
         <is>
-          <t>HFB207</t>
+          <t>HFB202</t>
         </is>
       </c>
       <c r="E62" s="7" t="inlineStr">
@@ -3329,14 +3329,14 @@
       </c>
       <c r="F62" s="7" t="inlineStr">
         <is>
-          <t>2023/06/29</t>
+          <t>2022/11/30</t>
         </is>
       </c>
       <c r="G62" s="8" t="n">
-        <v>552432.88</v>
+        <v>635869.86</v>
       </c>
       <c r="H62" s="8" t="n">
-        <v>400000</v>
+        <v>500000</v>
       </c>
       <c r="I62" s="7" t="b">
         <v>1</v>
@@ -3351,22 +3351,22 @@
     <row r="63">
       <c r="A63" s="7" t="inlineStr">
         <is>
-          <t>ZEDE01</t>
+          <t>ZCRO01</t>
         </is>
       </c>
       <c r="B63" s="7" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>Marc</t>
         </is>
       </c>
       <c r="C63" s="7" t="inlineStr">
         <is>
-          <t>van Eden</t>
+          <t>Lunau</t>
         </is>
       </c>
       <c r="D63" s="7" t="inlineStr">
         <is>
-          <t>HFB210</t>
+          <t>HFB108</t>
         </is>
       </c>
       <c r="E63" s="7" t="inlineStr">
@@ -3376,14 +3376,14 @@
       </c>
       <c r="F63" s="7" t="inlineStr">
         <is>
-          <t>2023/04/19</t>
+          <t>2023/01/27</t>
         </is>
       </c>
       <c r="G63" s="8" t="n">
-        <v>673376.71</v>
+        <v>144222.05</v>
       </c>
       <c r="H63" s="8" t="n">
-        <v>500000</v>
+        <v>110000</v>
       </c>
       <c r="I63" s="7" t="b">
         <v>1</v>
@@ -3398,86 +3398,86 @@
     <row r="64">
       <c r="A64" s="7" t="inlineStr">
         <is>
-          <t>ZDEB01</t>
+          <t>ZCRO01</t>
         </is>
       </c>
       <c r="B64" s="7" t="inlineStr">
         <is>
-          <t>William Henry</t>
+          <t>Marc</t>
         </is>
       </c>
       <c r="C64" s="7" t="inlineStr">
         <is>
-          <t>De Beer</t>
+          <t>Lunau</t>
         </is>
       </c>
       <c r="D64" s="7" t="inlineStr">
         <is>
-          <t>HFB204</t>
+          <t>HVK103</t>
         </is>
       </c>
       <c r="E64" s="7" t="inlineStr">
         <is>
-          <t>Heron Fields</t>
+          <t>Heron View</t>
         </is>
       </c>
       <c r="F64" s="7" t="inlineStr">
         <is>
-          <t>2023/03/13</t>
+          <t>2024/08/26</t>
         </is>
       </c>
       <c r="G64" s="8" t="n">
-        <v>1198121.92</v>
+        <v>142458.29</v>
       </c>
       <c r="H64" s="8" t="n">
-        <v>900000</v>
+        <v>110000</v>
       </c>
       <c r="I64" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" s="7" t="n">
         <v>18</v>
       </c>
       <c r="K64" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="7" t="inlineStr">
         <is>
-          <t>ZDEB01</t>
+          <t>ZDEK01</t>
         </is>
       </c>
       <c r="B65" s="7" t="inlineStr">
         <is>
-          <t>William Henry</t>
+          <t>Dawn Margaret</t>
         </is>
       </c>
       <c r="C65" s="7" t="inlineStr">
         <is>
-          <t>De Beer</t>
+          <t>De Klerk (Way)</t>
         </is>
       </c>
       <c r="D65" s="7" t="inlineStr">
         <is>
-          <t>HFB209</t>
+          <t>EA204</t>
         </is>
       </c>
       <c r="E65" s="7" t="inlineStr">
         <is>
-          <t>Heron Fields</t>
+          <t>Endulini</t>
         </is>
       </c>
       <c r="F65" s="7" t="inlineStr">
         <is>
-          <t>2023/04/20</t>
+          <t>2023/09/14</t>
         </is>
       </c>
       <c r="G65" s="8" t="n">
-        <v>1213754.79</v>
+        <v>404718.49</v>
       </c>
       <c r="H65" s="8" t="n">
-        <v>900000</v>
+        <v>300000</v>
       </c>
       <c r="I65" s="7" t="b">
         <v>1</v>
@@ -3492,22 +3492,22 @@
     <row r="66">
       <c r="A66" s="7" t="inlineStr">
         <is>
-          <t>ZJOR01</t>
+          <t>ZAFR01</t>
         </is>
       </c>
       <c r="B66" s="7" t="inlineStr">
         <is>
-          <t>Glen Rutherford</t>
+          <t>John Robert</t>
         </is>
       </c>
       <c r="C66" s="7" t="inlineStr">
         <is>
-          <t>Jordaan</t>
+          <t>Zylstra</t>
         </is>
       </c>
       <c r="D66" s="7" t="inlineStr">
         <is>
-          <t>HFB107</t>
+          <t>HFB211</t>
         </is>
       </c>
       <c r="E66" s="7" t="inlineStr">
@@ -3517,14 +3517,14 @@
       </c>
       <c r="F66" s="7" t="inlineStr">
         <is>
-          <t>2023/02/24</t>
+          <t>2023/04/19</t>
         </is>
       </c>
       <c r="G66" s="8" t="n">
-        <v>659119.86</v>
+        <v>943566.4399999999</v>
       </c>
       <c r="H66" s="8" t="n">
-        <v>500000</v>
+        <v>700000</v>
       </c>
       <c r="I66" s="7" t="b">
         <v>1</v>
@@ -3539,39 +3539,39 @@
     <row r="67">
       <c r="A67" s="7" t="inlineStr">
         <is>
-          <t>ZJOR01</t>
+          <t>ZGIL01</t>
         </is>
       </c>
       <c r="B67" s="7" t="inlineStr">
         <is>
-          <t>Glen Rutherford</t>
+          <t>Estelle Maria</t>
         </is>
       </c>
       <c r="C67" s="7" t="inlineStr">
         <is>
-          <t>Jordaan</t>
+          <t>Gildenhuys</t>
         </is>
       </c>
       <c r="D67" s="7" t="inlineStr">
         <is>
-          <t>EA302</t>
+          <t>HFB207</t>
         </is>
       </c>
       <c r="E67" s="7" t="inlineStr">
         <is>
-          <t>Endulini</t>
+          <t>Heron Fields</t>
         </is>
       </c>
       <c r="F67" s="7" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2023/06/29</t>
         </is>
       </c>
       <c r="G67" s="8" t="n">
-        <v>268446.58</v>
+        <v>552432.88</v>
       </c>
       <c r="H67" s="8" t="n">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="I67" s="7" t="b">
         <v>1</v>
@@ -3586,45 +3586,45 @@
     <row r="68">
       <c r="A68" s="7" t="inlineStr">
         <is>
-          <t>ZVER03</t>
+          <t>ZEDE01</t>
         </is>
       </c>
       <c r="B68" s="7" t="inlineStr">
         <is>
-          <t>Jacob Johannes</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C68" s="7" t="inlineStr">
         <is>
-          <t>Vermeulen</t>
+          <t>van Eden</t>
         </is>
       </c>
       <c r="D68" s="7" t="inlineStr">
         <is>
-          <t>EC202</t>
+          <t>HFB210</t>
         </is>
       </c>
       <c r="E68" s="7" t="inlineStr">
         <is>
-          <t>Endulini</t>
+          <t>Heron Fields</t>
         </is>
       </c>
       <c r="F68" s="7" t="inlineStr">
         <is>
-          <t>2023/06/09</t>
+          <t>2023/04/19</t>
         </is>
       </c>
       <c r="G68" s="8" t="n">
-        <v>130061.64</v>
+        <v>673376.71</v>
       </c>
       <c r="H68" s="8" t="n">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="I68" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J68" s="7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K68" s="7" t="b">
         <v>1</v>
@@ -3633,22 +3633,22 @@
     <row r="69">
       <c r="A69" s="7" t="inlineStr">
         <is>
-          <t>ZDAD01</t>
+          <t>ZDEB01</t>
         </is>
       </c>
       <c r="B69" s="7" t="inlineStr">
         <is>
-          <t>Feroz</t>
+          <t>William Henry</t>
         </is>
       </c>
       <c r="C69" s="7" t="inlineStr">
         <is>
-          <t>Dadoo</t>
+          <t>De Beer</t>
         </is>
       </c>
       <c r="D69" s="7" t="inlineStr">
         <is>
-          <t>HFB207</t>
+          <t>HFB204</t>
         </is>
       </c>
       <c r="E69" s="7" t="inlineStr">
@@ -3658,14 +3658,14 @@
       </c>
       <c r="F69" s="7" t="inlineStr">
         <is>
-          <t>2023/04/19</t>
+          <t>2023/03/13</t>
         </is>
       </c>
       <c r="G69" s="8" t="n">
-        <v>673976.03</v>
+        <v>1198121.92</v>
       </c>
       <c r="H69" s="8" t="n">
-        <v>500000</v>
+        <v>900000</v>
       </c>
       <c r="I69" s="7" t="b">
         <v>1</v>
@@ -3680,22 +3680,22 @@
     <row r="70">
       <c r="A70" s="7" t="inlineStr">
         <is>
-          <t>ZBEN02</t>
+          <t>ZDEB01</t>
         </is>
       </c>
       <c r="B70" s="7" t="inlineStr">
         <is>
-          <t>Veronica</t>
+          <t>William Henry</t>
         </is>
       </c>
       <c r="C70" s="7" t="inlineStr">
         <is>
-          <t>Beneke</t>
+          <t>De Beer</t>
         </is>
       </c>
       <c r="D70" s="7" t="inlineStr">
         <is>
-          <t>HFB211</t>
+          <t>HFB209</t>
         </is>
       </c>
       <c r="E70" s="7" t="inlineStr">
@@ -3705,20 +3705,20 @@
       </c>
       <c r="F70" s="7" t="inlineStr">
         <is>
-          <t>2023/06/29</t>
+          <t>2023/04/20</t>
         </is>
       </c>
       <c r="G70" s="8" t="n">
-        <v>263239.73</v>
+        <v>1213754.79</v>
       </c>
       <c r="H70" s="8" t="n">
-        <v>200000</v>
+        <v>900000</v>
       </c>
       <c r="I70" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J70" s="7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K70" s="7" t="b">
         <v>1</v>
@@ -3727,45 +3727,45 @@
     <row r="71">
       <c r="A71" s="7" t="inlineStr">
         <is>
-          <t>ZBLO01</t>
+          <t>ZJOR01</t>
         </is>
       </c>
       <c r="B71" s="7" t="inlineStr">
         <is>
-          <t>Robert Errol</t>
+          <t>Glen Rutherford</t>
         </is>
       </c>
       <c r="C71" s="7" t="inlineStr">
         <is>
-          <t>Blows</t>
+          <t>Jordaan</t>
         </is>
       </c>
       <c r="D71" s="7" t="inlineStr">
         <is>
-          <t>EA304</t>
+          <t>HFB107</t>
         </is>
       </c>
       <c r="E71" s="7" t="inlineStr">
         <is>
-          <t>Endulini</t>
+          <t>Heron Fields</t>
         </is>
       </c>
       <c r="F71" s="7" t="inlineStr">
         <is>
-          <t>2022/12/09</t>
+          <t>2023/02/24</t>
         </is>
       </c>
       <c r="G71" s="8" t="n">
-        <v>110510.27</v>
+        <v>659119.86</v>
       </c>
       <c r="H71" s="8" t="n">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="I71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J71" s="7" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K71" s="7" t="b">
         <v>1</v>
@@ -3774,39 +3774,39 @@
     <row r="72">
       <c r="A72" s="7" t="inlineStr">
         <is>
-          <t>ZKRO03</t>
+          <t>ZJOR01</t>
         </is>
       </c>
       <c r="B72" s="7" t="inlineStr">
         <is>
-          <t>Jacqueline</t>
+          <t>Glen Rutherford</t>
         </is>
       </c>
       <c r="C72" s="7" t="inlineStr">
         <is>
-          <t>Krohn</t>
+          <t>Jordaan</t>
         </is>
       </c>
       <c r="D72" s="7" t="inlineStr">
         <is>
-          <t>HFA305</t>
+          <t>EA302</t>
         </is>
       </c>
       <c r="E72" s="7" t="inlineStr">
         <is>
-          <t>Heron Fields</t>
+          <t>Endulini</t>
         </is>
       </c>
       <c r="F72" s="7" t="inlineStr">
         <is>
-          <t>2022/11/30</t>
+          <t>2023/12/13</t>
         </is>
       </c>
       <c r="G72" s="8" t="n">
-        <v>636671.83</v>
+        <v>268446.58</v>
       </c>
       <c r="H72" s="8" t="n">
-        <v>500100</v>
+        <v>200000</v>
       </c>
       <c r="I72" s="7" t="b">
         <v>1</v>
@@ -3821,45 +3821,45 @@
     <row r="73">
       <c r="A73" s="7" t="inlineStr">
         <is>
-          <t>ZDIC01</t>
+          <t>ZVER03</t>
         </is>
       </c>
       <c r="B73" s="7" t="inlineStr">
         <is>
-          <t>Grant Allan</t>
+          <t>Jacob Johannes</t>
         </is>
       </c>
       <c r="C73" s="7" t="inlineStr">
         <is>
-          <t>Dickinson</t>
+          <t>Vermeulen</t>
         </is>
       </c>
       <c r="D73" s="7" t="inlineStr">
         <is>
-          <t>HFB203</t>
+          <t>EC202</t>
         </is>
       </c>
       <c r="E73" s="7" t="inlineStr">
         <is>
-          <t>Heron Fields</t>
+          <t>Endulini</t>
         </is>
       </c>
       <c r="F73" s="7" t="inlineStr">
         <is>
-          <t>2022/11/30</t>
+          <t>2023/06/09</t>
         </is>
       </c>
       <c r="G73" s="8" t="n">
-        <v>767449.3199999999</v>
+        <v>130061.64</v>
       </c>
       <c r="H73" s="8" t="n">
-        <v>600000</v>
+        <v>100000</v>
       </c>
       <c r="I73" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J73" s="7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K73" s="7" t="b">
         <v>1</v>
@@ -3868,22 +3868,22 @@
     <row r="74">
       <c r="A74" s="7" t="inlineStr">
         <is>
-          <t>ZDIC01</t>
+          <t>ZDAD01</t>
         </is>
       </c>
       <c r="B74" s="7" t="inlineStr">
         <is>
-          <t>Grant Allan</t>
+          <t>Feroz</t>
         </is>
       </c>
       <c r="C74" s="7" t="inlineStr">
         <is>
-          <t>Dickinson</t>
+          <t>Dadoo</t>
         </is>
       </c>
       <c r="D74" s="7" t="inlineStr">
         <is>
-          <t>HFB212</t>
+          <t>HFB207</t>
         </is>
       </c>
       <c r="E74" s="7" t="inlineStr">
@@ -3893,14 +3893,14 @@
       </c>
       <c r="F74" s="7" t="inlineStr">
         <is>
-          <t>2023/05/10</t>
+          <t>2023/04/19</t>
         </is>
       </c>
       <c r="G74" s="8" t="n">
-        <v>1222631.51</v>
+        <v>673976.03</v>
       </c>
       <c r="H74" s="8" t="n">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="I74" s="7" t="b">
         <v>1</v>
@@ -3915,45 +3915,45 @@
     <row r="75">
       <c r="A75" s="7" t="inlineStr">
         <is>
-          <t>ZDIC01</t>
+          <t>ZBEN02</t>
         </is>
       </c>
       <c r="B75" s="7" t="inlineStr">
         <is>
-          <t>Grant Allan</t>
+          <t>Veronica</t>
         </is>
       </c>
       <c r="C75" s="7" t="inlineStr">
         <is>
-          <t>Dickinson</t>
+          <t>Beneke</t>
         </is>
       </c>
       <c r="D75" s="7" t="inlineStr">
         <is>
-          <t>EA303</t>
+          <t>HFB211</t>
         </is>
       </c>
       <c r="E75" s="7" t="inlineStr">
         <is>
-          <t>Endulini</t>
+          <t>Heron Fields</t>
         </is>
       </c>
       <c r="F75" s="7" t="inlineStr">
         <is>
-          <t>2022/12/09</t>
+          <t>2023/06/29</t>
         </is>
       </c>
       <c r="G75" s="8" t="n">
-        <v>566390.41</v>
+        <v>263239.73</v>
       </c>
       <c r="H75" s="8" t="n">
-        <v>500000</v>
+        <v>200000</v>
       </c>
       <c r="I75" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J75" s="7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K75" s="7" t="b">
         <v>1</v>
@@ -3962,92 +3962,92 @@
     <row r="76">
       <c r="A76" s="7" t="inlineStr">
         <is>
-          <t>ZDIC01</t>
+          <t>ZBLO01</t>
         </is>
       </c>
       <c r="B76" s="7" t="inlineStr">
         <is>
-          <t>Grant Allan</t>
+          <t>Robert Errol</t>
         </is>
       </c>
       <c r="C76" s="7" t="inlineStr">
         <is>
-          <t>Dickinson</t>
+          <t>Blows</t>
         </is>
       </c>
       <c r="D76" s="7" t="inlineStr">
         <is>
-          <t>HVD303</t>
+          <t>EA304</t>
         </is>
       </c>
       <c r="E76" s="7" t="inlineStr">
         <is>
-          <t>Heron View</t>
+          <t>Endulini</t>
         </is>
       </c>
       <c r="F76" s="7" t="inlineStr">
         <is>
-          <t>2024/07/31</t>
+          <t>2022/12/09</t>
         </is>
       </c>
       <c r="G76" s="8" t="n">
-        <v>579991.87</v>
+        <v>110510.27</v>
       </c>
       <c r="H76" s="8" t="n">
-        <v>418733.56</v>
+        <v>100000</v>
       </c>
       <c r="I76" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J76" s="7" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K76" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="7" t="inlineStr">
         <is>
-          <t>ZZEL01</t>
+          <t>ZKRO03</t>
         </is>
       </c>
       <c r="B77" s="7" t="inlineStr">
         <is>
-          <t>Vaclav Merek</t>
+          <t>Jacqueline</t>
         </is>
       </c>
       <c r="C77" s="7" t="inlineStr">
         <is>
-          <t>Svacha</t>
+          <t>Krohn</t>
         </is>
       </c>
       <c r="D77" s="7" t="inlineStr">
         <is>
-          <t>EC202</t>
+          <t>HFA305</t>
         </is>
       </c>
       <c r="E77" s="7" t="inlineStr">
         <is>
-          <t>Endulini</t>
+          <t>Heron Fields</t>
         </is>
       </c>
       <c r="F77" s="7" t="inlineStr">
         <is>
-          <t>2023/06/09</t>
+          <t>2022/11/30</t>
         </is>
       </c>
       <c r="G77" s="8" t="n">
-        <v>254219.18</v>
+        <v>636671.83</v>
       </c>
       <c r="H77" s="8" t="n">
-        <v>200000</v>
+        <v>500100</v>
       </c>
       <c r="I77" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J77" s="7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K77" s="7" t="b">
         <v>1</v>
@@ -4056,39 +4056,39 @@
     <row r="78">
       <c r="A78" s="7" t="inlineStr">
         <is>
-          <t>ZOLI01</t>
+          <t>ZDIC01</t>
         </is>
       </c>
       <c r="B78" s="7" t="inlineStr">
         <is>
-          <t>Jan Lukas Cornelus</t>
+          <t>Grant Allan</t>
         </is>
       </c>
       <c r="C78" s="7" t="inlineStr">
         <is>
-          <t>Olivier</t>
+          <t>Dickinson</t>
         </is>
       </c>
       <c r="D78" s="7" t="inlineStr">
         <is>
-          <t>HVJ101</t>
+          <t>HFB203</t>
         </is>
       </c>
       <c r="E78" s="7" t="inlineStr">
         <is>
-          <t>Heron View</t>
+          <t>Heron Fields</t>
         </is>
       </c>
       <c r="F78" s="7" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2022/11/30</t>
         </is>
       </c>
       <c r="G78" s="8" t="n">
-        <v>685383.5600000001</v>
+        <v>767449.3199999999</v>
       </c>
       <c r="H78" s="8" t="n">
-        <v>500000</v>
+        <v>600000</v>
       </c>
       <c r="I78" s="7" t="b">
         <v>1</v>
@@ -4097,45 +4097,45 @@
         <v>18</v>
       </c>
       <c r="K78" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="7" t="inlineStr">
         <is>
-          <t>ZCRO02</t>
+          <t>ZDIC01</t>
         </is>
       </c>
       <c r="B79" s="7" t="inlineStr">
         <is>
-          <t>Gregory Murray</t>
+          <t>Grant Allan</t>
         </is>
       </c>
       <c r="C79" s="7" t="inlineStr">
         <is>
-          <t>Crouse</t>
+          <t>Dickinson</t>
         </is>
       </c>
       <c r="D79" s="7" t="inlineStr">
         <is>
-          <t>EC202</t>
+          <t>HFB212</t>
         </is>
       </c>
       <c r="E79" s="7" t="inlineStr">
         <is>
-          <t>Endulini</t>
+          <t>Heron Fields</t>
         </is>
       </c>
       <c r="F79" s="7" t="inlineStr">
         <is>
-          <t>2023/06/09</t>
+          <t>2023/05/10</t>
         </is>
       </c>
       <c r="G79" s="8" t="n">
-        <v>746749.3199999999</v>
+        <v>1222631.51</v>
       </c>
       <c r="H79" s="8" t="n">
-        <v>550000</v>
+        <v>900000</v>
       </c>
       <c r="I79" s="7" t="b">
         <v>1</v>
@@ -4150,22 +4150,22 @@
     <row r="80">
       <c r="A80" s="7" t="inlineStr">
         <is>
-          <t>ZSCH03</t>
+          <t>ZDIC01</t>
         </is>
       </c>
       <c r="B80" s="7" t="inlineStr">
         <is>
-          <t>Gary James</t>
+          <t>Grant Allan</t>
         </is>
       </c>
       <c r="C80" s="7" t="inlineStr">
         <is>
-          <t>Schmidt</t>
+          <t>Dickinson</t>
         </is>
       </c>
       <c r="D80" s="7" t="inlineStr">
         <is>
-          <t>EA201</t>
+          <t>EA303</t>
         </is>
       </c>
       <c r="E80" s="7" t="inlineStr">
@@ -4175,11 +4175,11 @@
       </c>
       <c r="F80" s="7" t="inlineStr">
         <is>
-          <t>2023/09/14</t>
+          <t>2022/12/09</t>
         </is>
       </c>
       <c r="G80" s="8" t="n">
-        <v>675215.75</v>
+        <v>566390.41</v>
       </c>
       <c r="H80" s="8" t="n">
         <v>500000</v>
@@ -4197,39 +4197,39 @@
     <row r="81">
       <c r="A81" s="7" t="inlineStr">
         <is>
-          <t>ZSCH03</t>
+          <t>ZDIC01</t>
         </is>
       </c>
       <c r="B81" s="7" t="inlineStr">
         <is>
-          <t>Gary James</t>
+          <t>Grant Allan</t>
         </is>
       </c>
       <c r="C81" s="7" t="inlineStr">
         <is>
-          <t>Schmidt</t>
+          <t>Dickinson</t>
         </is>
       </c>
       <c r="D81" s="7" t="inlineStr">
         <is>
-          <t>EA206</t>
+          <t>HVD303</t>
         </is>
       </c>
       <c r="E81" s="7" t="inlineStr">
         <is>
-          <t>Endulini</t>
+          <t>Heron View</t>
         </is>
       </c>
       <c r="F81" s="7" t="inlineStr">
         <is>
-          <t>2023/12/05</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="G81" s="8" t="n">
-        <v>678167.8100000001</v>
+        <v>579991.87</v>
       </c>
       <c r="H81" s="8" t="n">
-        <v>500000</v>
+        <v>418733.56</v>
       </c>
       <c r="I81" s="7" t="b">
         <v>1</v>
@@ -4238,28 +4238,28 @@
         <v>18</v>
       </c>
       <c r="K81" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="7" t="inlineStr">
         <is>
-          <t>ZERA01</t>
+          <t>ZZEL01</t>
         </is>
       </c>
       <c r="B82" s="7" t="inlineStr">
         <is>
-          <t>Jacques</t>
+          <t>Vaclav Merek</t>
         </is>
       </c>
       <c r="C82" s="7" t="inlineStr">
         <is>
-          <t>Erasmus</t>
+          <t>Svacha</t>
         </is>
       </c>
       <c r="D82" s="7" t="inlineStr">
         <is>
-          <t>EA205</t>
+          <t>EC202</t>
         </is>
       </c>
       <c r="E82" s="7" t="inlineStr">
@@ -4269,20 +4269,20 @@
       </c>
       <c r="F82" s="7" t="inlineStr">
         <is>
-          <t>2023/04/26</t>
+          <t>2023/06/09</t>
         </is>
       </c>
       <c r="G82" s="8" t="n">
-        <v>377519.18</v>
+        <v>254219.18</v>
       </c>
       <c r="H82" s="8" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="I82" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J82" s="7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K82" s="7" t="b">
         <v>1</v>
@@ -4291,36 +4291,36 @@
     <row r="83">
       <c r="A83" s="7" t="inlineStr">
         <is>
-          <t>ZELO01</t>
+          <t>ZOLI01</t>
         </is>
       </c>
       <c r="B83" s="7" t="inlineStr">
         <is>
-          <t>Gerhardus</t>
+          <t>Jan Lukas Cornelus</t>
         </is>
       </c>
       <c r="C83" s="7" t="inlineStr">
         <is>
-          <t>Eloff</t>
+          <t>Olivier</t>
         </is>
       </c>
       <c r="D83" s="7" t="inlineStr">
         <is>
-          <t>EA201</t>
+          <t>HVJ101</t>
         </is>
       </c>
       <c r="E83" s="7" t="inlineStr">
         <is>
-          <t>Endulini</t>
+          <t>Heron View</t>
         </is>
       </c>
       <c r="F83" s="7" t="inlineStr">
         <is>
-          <t>2023/08/28</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="G83" s="8" t="n">
-        <v>681304.79</v>
+        <v>685383.5600000001</v>
       </c>
       <c r="H83" s="8" t="n">
         <v>500000</v>
@@ -4332,28 +4332,28 @@
         <v>18</v>
       </c>
       <c r="K83" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="7" t="inlineStr">
         <is>
-          <t>ZSLE01</t>
+          <t>ZCRO02</t>
         </is>
       </c>
       <c r="B84" s="7" t="inlineStr">
         <is>
-          <t>Sybrand Johan</t>
+          <t>Gregory Murray</t>
         </is>
       </c>
       <c r="C84" s="7" t="inlineStr">
         <is>
-          <t>Sleigh</t>
+          <t>Crouse</t>
         </is>
       </c>
       <c r="D84" s="7" t="inlineStr">
         <is>
-          <t>EA202</t>
+          <t>EC202</t>
         </is>
       </c>
       <c r="E84" s="7" t="inlineStr">
@@ -4363,20 +4363,20 @@
       </c>
       <c r="F84" s="7" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/06/09</t>
         </is>
       </c>
       <c r="G84" s="8" t="n">
-        <v>237686.3</v>
+        <v>746749.3199999999</v>
       </c>
       <c r="H84" s="8" t="n">
-        <v>180000</v>
+        <v>550000</v>
       </c>
       <c r="I84" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J84" s="7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K84" s="7" t="b">
         <v>1</v>
@@ -4385,22 +4385,22 @@
     <row r="85">
       <c r="A85" s="7" t="inlineStr">
         <is>
-          <t>ZSCO01</t>
+          <t>ZSCH03</t>
         </is>
       </c>
       <c r="B85" s="7" t="inlineStr">
         <is>
-          <t>Caryn</t>
+          <t>Gary James</t>
         </is>
       </c>
       <c r="C85" s="7" t="inlineStr">
         <is>
-          <t>Scott</t>
+          <t>Schmidt</t>
         </is>
       </c>
       <c r="D85" s="7" t="inlineStr">
         <is>
-          <t>EA107</t>
+          <t>EA201</t>
         </is>
       </c>
       <c r="E85" s="7" t="inlineStr">
@@ -4410,20 +4410,20 @@
       </c>
       <c r="F85" s="7" t="inlineStr">
         <is>
-          <t>2023/09/07</t>
+          <t>2023/09/14</t>
         </is>
       </c>
       <c r="G85" s="8" t="n">
-        <v>324058.22</v>
+        <v>675215.75</v>
       </c>
       <c r="H85" s="8" t="n">
-        <v>250000</v>
+        <v>500000</v>
       </c>
       <c r="I85" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J85" s="7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K85" s="7" t="b">
         <v>1</v>
@@ -4432,17 +4432,17 @@
     <row r="86">
       <c r="A86" s="7" t="inlineStr">
         <is>
-          <t>ZSTO01</t>
+          <t>ZSCH03</t>
         </is>
       </c>
       <c r="B86" s="7" t="inlineStr">
         <is>
-          <t>Nicolaas</t>
+          <t>Gary James</t>
         </is>
       </c>
       <c r="C86" s="7" t="inlineStr">
         <is>
-          <t>Stols</t>
+          <t>Schmidt</t>
         </is>
       </c>
       <c r="D86" s="7" t="inlineStr">
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="G86" s="8" t="n">
-        <v>396988.36</v>
+        <v>678167.8100000001</v>
       </c>
       <c r="H86" s="8" t="n">
-        <v>300000</v>
+        <v>500000</v>
       </c>
       <c r="I86" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J86" s="7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K86" s="7" t="b">
         <v>1</v>
@@ -4479,22 +4479,22 @@
     <row r="87">
       <c r="A87" s="7" t="inlineStr">
         <is>
-          <t>ZVIS01</t>
+          <t>ZERA01</t>
         </is>
       </c>
       <c r="B87" s="7" t="inlineStr">
         <is>
-          <t>Erna</t>
+          <t>Jacques</t>
         </is>
       </c>
       <c r="C87" s="7" t="inlineStr">
         <is>
-          <t>Visser</t>
+          <t>Erasmus</t>
         </is>
       </c>
       <c r="D87" s="7" t="inlineStr">
         <is>
-          <t>EA107</t>
+          <t>EA205</t>
         </is>
       </c>
       <c r="E87" s="7" t="inlineStr">
@@ -4504,11 +4504,11 @@
       </c>
       <c r="F87" s="7" t="inlineStr">
         <is>
-          <t>2023/09/07</t>
+          <t>2023/04/26</t>
         </is>
       </c>
       <c r="G87" s="8" t="n">
-        <v>406119.86</v>
+        <v>377519.18</v>
       </c>
       <c r="H87" s="8" t="n">
         <v>300000</v>
@@ -4526,22 +4526,22 @@
     <row r="88">
       <c r="A88" s="7" t="inlineStr">
         <is>
-          <t>ZVIS01</t>
+          <t>ZELO01</t>
         </is>
       </c>
       <c r="B88" s="7" t="inlineStr">
         <is>
-          <t>Erna</t>
+          <t>Gerhardus</t>
         </is>
       </c>
       <c r="C88" s="7" t="inlineStr">
         <is>
-          <t>Visser</t>
+          <t>Eloff</t>
         </is>
       </c>
       <c r="D88" s="7" t="inlineStr">
         <is>
-          <t>EA107</t>
+          <t>EA201</t>
         </is>
       </c>
       <c r="E88" s="7" t="inlineStr">
@@ -4551,14 +4551,14 @@
       </c>
       <c r="F88" s="7" t="inlineStr">
         <is>
-          <t>2023/09/07</t>
+          <t>2023/08/28</t>
         </is>
       </c>
       <c r="G88" s="8" t="n">
-        <v>269000</v>
+        <v>681304.79</v>
       </c>
       <c r="H88" s="8" t="n">
-        <v>200000</v>
+        <v>500000</v>
       </c>
       <c r="I88" s="7" t="b">
         <v>1</v>
@@ -4573,17 +4573,17 @@
     <row r="89">
       <c r="A89" s="7" t="inlineStr">
         <is>
-          <t>ZKRI03</t>
+          <t>ZSLE01</t>
         </is>
       </c>
       <c r="B89" s="7" t="inlineStr">
         <is>
-          <t>Helena Jacoba</t>
+          <t>Sybrand Johan</t>
         </is>
       </c>
       <c r="C89" s="7" t="inlineStr">
         <is>
-          <t>Kriel</t>
+          <t>Sleigh</t>
         </is>
       </c>
       <c r="D89" s="7" t="inlineStr">
@@ -4598,20 +4598,20 @@
       </c>
       <c r="F89" s="7" t="inlineStr">
         <is>
-          <t>2023/04/04</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="G89" s="8" t="n">
-        <v>1025046.58</v>
+        <v>237686.3</v>
       </c>
       <c r="H89" s="8" t="n">
-        <v>800000</v>
+        <v>180000</v>
       </c>
       <c r="I89" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J89" s="7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K89" s="7" t="b">
         <v>1</v>
@@ -4620,45 +4620,45 @@
     <row r="90">
       <c r="A90" s="7" t="inlineStr">
         <is>
-          <t>ZSOU02</t>
+          <t>ZSCO01</t>
         </is>
       </c>
       <c r="B90" s="7" t="inlineStr">
         <is>
-          <t>Frances Leathem</t>
+          <t>Caryn</t>
         </is>
       </c>
       <c r="C90" s="7" t="inlineStr">
         <is>
-          <t>Sourgen</t>
+          <t>Scott</t>
         </is>
       </c>
       <c r="D90" s="7" t="inlineStr">
         <is>
-          <t>HFA304</t>
+          <t>EA107</t>
         </is>
       </c>
       <c r="E90" s="7" t="inlineStr">
         <is>
-          <t>Heron Fields</t>
+          <t>Endulini</t>
         </is>
       </c>
       <c r="F90" s="7" t="inlineStr">
         <is>
-          <t>2023/04/04</t>
+          <t>2023/09/07</t>
         </is>
       </c>
       <c r="G90" s="8" t="n">
-        <v>120768.49</v>
+        <v>324058.22</v>
       </c>
       <c r="H90" s="8" t="n">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="I90" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J90" s="7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K90" s="7" t="b">
         <v>1</v>
@@ -4667,22 +4667,22 @@
     <row r="91">
       <c r="A91" s="7" t="inlineStr">
         <is>
-          <t>ZMOO02</t>
+          <t>ZSTO01</t>
         </is>
       </c>
       <c r="B91" s="7" t="inlineStr">
         <is>
-          <t>Chreeson Loganathan</t>
+          <t>Nicolaas</t>
         </is>
       </c>
       <c r="C91" s="7" t="inlineStr">
         <is>
-          <t>Moodley</t>
+          <t>Stols</t>
         </is>
       </c>
       <c r="D91" s="7" t="inlineStr">
         <is>
-          <t>EA204</t>
+          <t>EA206</t>
         </is>
       </c>
       <c r="E91" s="7" t="inlineStr">
@@ -4692,20 +4692,20 @@
       </c>
       <c r="F91" s="7" t="inlineStr">
         <is>
-          <t>2022/12/09</t>
+          <t>2023/12/05</t>
         </is>
       </c>
       <c r="G91" s="8" t="n">
-        <v>602626.71</v>
+        <v>396988.36</v>
       </c>
       <c r="H91" s="8" t="n">
-        <v>500000</v>
+        <v>300000</v>
       </c>
       <c r="I91" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J91" s="7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K91" s="7" t="b">
         <v>1</v>
@@ -4714,22 +4714,22 @@
     <row r="92">
       <c r="A92" s="7" t="inlineStr">
         <is>
-          <t>ZMOO02</t>
+          <t>ZVIS01</t>
         </is>
       </c>
       <c r="B92" s="7" t="inlineStr">
         <is>
-          <t>Chreeson Loganathan</t>
+          <t>Erna</t>
         </is>
       </c>
       <c r="C92" s="7" t="inlineStr">
         <is>
-          <t>Moodley</t>
+          <t>Visser</t>
         </is>
       </c>
       <c r="D92" s="7" t="inlineStr">
         <is>
-          <t>EA205</t>
+          <t>EA107</t>
         </is>
       </c>
       <c r="E92" s="7" t="inlineStr">
@@ -4739,14 +4739,14 @@
       </c>
       <c r="F92" s="7" t="inlineStr">
         <is>
-          <t>2023/09/14</t>
+          <t>2023/09/07</t>
         </is>
       </c>
       <c r="G92" s="8" t="n">
-        <v>657328.77</v>
+        <v>406119.86</v>
       </c>
       <c r="H92" s="8" t="n">
-        <v>500000</v>
+        <v>300000</v>
       </c>
       <c r="I92" s="7" t="b">
         <v>1</v>
@@ -4761,39 +4761,39 @@
     <row r="93">
       <c r="A93" s="7" t="inlineStr">
         <is>
-          <t>ZREN01</t>
+          <t>ZVIS01</t>
         </is>
       </c>
       <c r="B93" s="7" t="inlineStr">
         <is>
-          <t>Marlene Ann</t>
+          <t>Erna</t>
         </is>
       </c>
       <c r="C93" s="7" t="inlineStr">
         <is>
-          <t>van Rensburg</t>
+          <t>Visser</t>
         </is>
       </c>
       <c r="D93" s="7" t="inlineStr">
         <is>
-          <t>HFB213</t>
+          <t>EA107</t>
         </is>
       </c>
       <c r="E93" s="7" t="inlineStr">
         <is>
-          <t>Heron Fields</t>
+          <t>Endulini</t>
         </is>
       </c>
       <c r="F93" s="7" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2023/09/07</t>
         </is>
       </c>
       <c r="G93" s="8" t="n">
-        <v>1369136.99</v>
+        <v>269000</v>
       </c>
       <c r="H93" s="8" t="n">
-        <v>1000000</v>
+        <v>200000</v>
       </c>
       <c r="I93" s="7" t="b">
         <v>1</v>
@@ -4808,22 +4808,22 @@
     <row r="94">
       <c r="A94" s="7" t="inlineStr">
         <is>
-          <t>ZLAB01</t>
+          <t>ZKRI03</t>
         </is>
       </c>
       <c r="B94" s="7" t="inlineStr">
         <is>
-          <t>Andre Jan</t>
+          <t>Helena Jacoba</t>
         </is>
       </c>
       <c r="C94" s="7" t="inlineStr">
         <is>
-          <t>Labuschagne</t>
+          <t>Kriel</t>
         </is>
       </c>
       <c r="D94" s="7" t="inlineStr">
         <is>
-          <t>EA209</t>
+          <t>EA202</t>
         </is>
       </c>
       <c r="E94" s="7" t="inlineStr">
@@ -4833,20 +4833,20 @@
       </c>
       <c r="F94" s="7" t="inlineStr">
         <is>
-          <t>2023/04/05</t>
+          <t>2023/04/04</t>
         </is>
       </c>
       <c r="G94" s="8" t="n">
-        <v>302195.21</v>
+        <v>1025046.58</v>
       </c>
       <c r="H94" s="8" t="n">
-        <v>250000</v>
+        <v>800000</v>
       </c>
       <c r="I94" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J94" s="7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K94" s="7" t="b">
         <v>1</v>
@@ -4855,86 +4855,86 @@
     <row r="95">
       <c r="A95" s="7" t="inlineStr">
         <is>
-          <t>ZLAB01</t>
+          <t>ZSOU02</t>
         </is>
       </c>
       <c r="B95" s="7" t="inlineStr">
         <is>
-          <t>Andre Jan</t>
+          <t>Frances Leathem</t>
         </is>
       </c>
       <c r="C95" s="7" t="inlineStr">
         <is>
-          <t>Labuschagne</t>
+          <t>Sourgen</t>
         </is>
       </c>
       <c r="D95" s="7" t="inlineStr">
         <is>
-          <t>HVJ202</t>
+          <t>HFA304</t>
         </is>
       </c>
       <c r="E95" s="7" t="inlineStr">
         <is>
-          <t>Heron View</t>
+          <t>Heron Fields</t>
         </is>
       </c>
       <c r="F95" s="7" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2023/04/04</t>
         </is>
       </c>
       <c r="G95" s="8" t="n">
-        <v>1361767.12</v>
+        <v>120768.49</v>
       </c>
       <c r="H95" s="8" t="n">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="I95" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J95" s="7" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K95" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="7" t="inlineStr">
         <is>
-          <t>ZGOF01</t>
+          <t>ZMOO02</t>
         </is>
       </c>
       <c r="B96" s="7" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Chreeson Loganathan</t>
         </is>
       </c>
       <c r="C96" s="7" t="inlineStr">
         <is>
-          <t>Goff</t>
+          <t>Moodley</t>
         </is>
       </c>
       <c r="D96" s="7" t="inlineStr">
         <is>
-          <t>HFB308</t>
+          <t>EA204</t>
         </is>
       </c>
       <c r="E96" s="7" t="inlineStr">
         <is>
-          <t>Heron Fields</t>
+          <t>Endulini</t>
         </is>
       </c>
       <c r="F96" s="7" t="inlineStr">
         <is>
-          <t>2023/03/24</t>
+          <t>2022/12/09</t>
         </is>
       </c>
       <c r="G96" s="8" t="n">
-        <v>1201260.27</v>
+        <v>602626.71</v>
       </c>
       <c r="H96" s="8" t="n">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="I96" s="7" t="b">
         <v>1</v>
@@ -4949,22 +4949,22 @@
     <row r="97">
       <c r="A97" s="7" t="inlineStr">
         <is>
-          <t>ZSMI02</t>
+          <t>ZMOO02</t>
         </is>
       </c>
       <c r="B97" s="7" t="inlineStr">
         <is>
-          <t>Sophia Catharina</t>
+          <t>Chreeson Loganathan</t>
         </is>
       </c>
       <c r="C97" s="7" t="inlineStr">
         <is>
-          <t>Smit</t>
+          <t>Moodley</t>
         </is>
       </c>
       <c r="D97" s="7" t="inlineStr">
         <is>
-          <t>EC302</t>
+          <t>EA205</t>
         </is>
       </c>
       <c r="E97" s="7" t="inlineStr">
@@ -4974,11 +4974,11 @@
       </c>
       <c r="F97" s="7" t="inlineStr">
         <is>
-          <t>2023/04/05</t>
+          <t>2023/09/14</t>
         </is>
       </c>
       <c r="G97" s="8" t="n">
-        <v>631732.88</v>
+        <v>657328.77</v>
       </c>
       <c r="H97" s="8" t="n">
         <v>500000</v>
@@ -4996,22 +4996,22 @@
     <row r="98">
       <c r="A98" s="7" t="inlineStr">
         <is>
-          <t>ZJAN02</t>
+          <t>ZREN01</t>
         </is>
       </c>
       <c r="B98" s="7" t="inlineStr">
         <is>
-          <t>Lynne</t>
+          <t>Marlene Ann</t>
         </is>
       </c>
       <c r="C98" s="7" t="inlineStr">
         <is>
-          <t>Jansen van Vuuren</t>
+          <t>van Rensburg</t>
         </is>
       </c>
       <c r="D98" s="7" t="inlineStr">
         <is>
-          <t>HFB210</t>
+          <t>HFB213</t>
         </is>
       </c>
       <c r="E98" s="7" t="inlineStr">
@@ -5021,20 +5021,20 @@
       </c>
       <c r="F98" s="7" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2023/12/07</t>
         </is>
       </c>
       <c r="G98" s="8" t="n">
-        <v>129104.79</v>
+        <v>1369136.99</v>
       </c>
       <c r="H98" s="8" t="n">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="I98" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J98" s="7" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K98" s="7" t="b">
         <v>1</v>
@@ -5043,45 +5043,45 @@
     <row r="99">
       <c r="A99" s="7" t="inlineStr">
         <is>
-          <t>ZROU01</t>
+          <t>ZLAB01</t>
         </is>
       </c>
       <c r="B99" s="7" t="inlineStr">
         <is>
-          <t>Laura</t>
+          <t>Andre Jan</t>
         </is>
       </c>
       <c r="C99" s="7" t="inlineStr">
         <is>
-          <t>Roux</t>
+          <t>Labuschagne</t>
         </is>
       </c>
       <c r="D99" s="7" t="inlineStr">
         <is>
-          <t>HFB307</t>
+          <t>EA209</t>
         </is>
       </c>
       <c r="E99" s="7" t="inlineStr">
         <is>
-          <t>Heron Fields</t>
+          <t>Endulini</t>
         </is>
       </c>
       <c r="F99" s="7" t="inlineStr">
         <is>
-          <t>2023/04/04</t>
+          <t>2023/04/05</t>
         </is>
       </c>
       <c r="G99" s="8" t="n">
-        <v>234453.42</v>
+        <v>302195.21</v>
       </c>
       <c r="H99" s="8" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="I99" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J99" s="7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K99" s="7" t="b">
         <v>1</v>
@@ -5090,36 +5090,36 @@
     <row r="100">
       <c r="A100" s="7" t="inlineStr">
         <is>
-          <t>ZSCH04</t>
+          <t>ZLAB01</t>
         </is>
       </c>
       <c r="B100" s="7" t="inlineStr">
         <is>
-          <t>Christiaan</t>
+          <t>Andre Jan</t>
         </is>
       </c>
       <c r="C100" s="7" t="inlineStr">
         <is>
-          <t>Schroder</t>
+          <t>Labuschagne</t>
         </is>
       </c>
       <c r="D100" s="7" t="inlineStr">
         <is>
-          <t>HFB306</t>
+          <t>HVJ202</t>
         </is>
       </c>
       <c r="E100" s="7" t="inlineStr">
         <is>
-          <t>Heron Fields</t>
+          <t>Heron View</t>
         </is>
       </c>
       <c r="F100" s="7" t="inlineStr">
         <is>
-          <t>2023/04/04</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="G100" s="8" t="n">
-        <v>1212760.27</v>
+        <v>1361767.12</v>
       </c>
       <c r="H100" s="8" t="n">
         <v>1000000</v>
@@ -5131,28 +5131,28 @@
         <v>18</v>
       </c>
       <c r="K100" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="7" t="inlineStr">
         <is>
-          <t>ZMBA01</t>
+          <t>ZGOF01</t>
         </is>
       </c>
       <c r="B101" s="7" t="inlineStr">
         <is>
-          <t>Vincent Mogoane</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="C101" s="7" t="inlineStr">
         <is>
-          <t>Mbatha</t>
+          <t>Goff</t>
         </is>
       </c>
       <c r="D101" s="7" t="inlineStr">
         <is>
-          <t>HFB210</t>
+          <t>HFB308</t>
         </is>
       </c>
       <c r="E101" s="7" t="inlineStr">
@@ -5162,20 +5162,20 @@
       </c>
       <c r="F101" s="7" t="inlineStr">
         <is>
-          <t>2024/02/01</t>
+          <t>2023/03/24</t>
         </is>
       </c>
       <c r="G101" s="8" t="n">
-        <v>259067.12</v>
+        <v>1201260.27</v>
       </c>
       <c r="H101" s="8" t="n">
-        <v>200000</v>
+        <v>1000000</v>
       </c>
       <c r="I101" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J101" s="7" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K101" s="7" t="b">
         <v>1</v>
@@ -5184,17 +5184,17 @@
     <row r="102">
       <c r="A102" s="7" t="inlineStr">
         <is>
-          <t>ZSIV01</t>
+          <t>ZSMI02</t>
         </is>
       </c>
       <c r="B102" s="7" t="inlineStr">
         <is>
-          <t>Gareth William</t>
+          <t>Sophia Catharina</t>
         </is>
       </c>
       <c r="C102" s="7" t="inlineStr">
         <is>
-          <t>Bedell-Sivright</t>
+          <t>Smit</t>
         </is>
       </c>
       <c r="D102" s="7" t="inlineStr">
@@ -5213,16 +5213,16 @@
         </is>
       </c>
       <c r="G102" s="8" t="n">
-        <v>121786.3</v>
+        <v>631732.88</v>
       </c>
       <c r="H102" s="8" t="n">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="I102" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J102" s="7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K102" s="7" t="b">
         <v>1</v>
@@ -5231,39 +5231,39 @@
     <row r="103">
       <c r="A103" s="7" t="inlineStr">
         <is>
-          <t>ZJOU02</t>
+          <t>ZJAN02</t>
         </is>
       </c>
       <c r="B103" s="7" t="inlineStr">
         <is>
-          <t>Magaretha Magdalena</t>
+          <t>Lynne</t>
         </is>
       </c>
       <c r="C103" s="7" t="inlineStr">
         <is>
-          <t>Joubert</t>
+          <t>Jansen van Vuuren</t>
         </is>
       </c>
       <c r="D103" s="7" t="inlineStr">
         <is>
-          <t>EA206</t>
+          <t>HFB210</t>
         </is>
       </c>
       <c r="E103" s="7" t="inlineStr">
         <is>
-          <t>Endulini</t>
+          <t>Heron Fields</t>
         </is>
       </c>
       <c r="F103" s="7" t="inlineStr">
         <is>
-          <t>2023/12/05</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="G103" s="8" t="n">
-        <v>256636.99</v>
+        <v>129104.79</v>
       </c>
       <c r="H103" s="8" t="n">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="I103" s="7" t="b">
         <v>1</v>
@@ -5278,36 +5278,36 @@
     <row r="104">
       <c r="A104" s="7" t="inlineStr">
         <is>
-          <t>ZRIT01</t>
+          <t>ZROU01</t>
         </is>
       </c>
       <c r="B104" s="7" t="inlineStr">
         <is>
-          <t>Dennis</t>
+          <t>Laura</t>
         </is>
       </c>
       <c r="C104" s="7" t="inlineStr">
         <is>
-          <t>Ritter</t>
+          <t>Roux</t>
         </is>
       </c>
       <c r="D104" s="7" t="inlineStr">
         <is>
-          <t>EA204</t>
+          <t>HFB307</t>
         </is>
       </c>
       <c r="E104" s="7" t="inlineStr">
         <is>
-          <t>Endulini</t>
+          <t>Heron Fields</t>
         </is>
       </c>
       <c r="F104" s="7" t="inlineStr">
         <is>
-          <t>2022/12/09</t>
+          <t>2023/04/04</t>
         </is>
       </c>
       <c r="G104" s="8" t="n">
-        <v>237315.07</v>
+        <v>234453.42</v>
       </c>
       <c r="H104" s="8" t="n">
         <v>200000</v>
@@ -5316,7 +5316,7 @@
         <v>1</v>
       </c>
       <c r="J104" s="7" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K104" s="7" t="b">
         <v>1</v>
@@ -5325,27 +5325,27 @@
     <row r="105">
       <c r="A105" s="7" t="inlineStr">
         <is>
-          <t>ZRIT01</t>
+          <t>ZSCH04</t>
         </is>
       </c>
       <c r="B105" s="7" t="inlineStr">
         <is>
-          <t>Dennis</t>
+          <t>Christiaan</t>
         </is>
       </c>
       <c r="C105" s="7" t="inlineStr">
         <is>
-          <t>Ritter</t>
+          <t>Schroder</t>
         </is>
       </c>
       <c r="D105" s="7" t="inlineStr">
         <is>
-          <t>EC302</t>
+          <t>HFB306</t>
         </is>
       </c>
       <c r="E105" s="7" t="inlineStr">
         <is>
-          <t>Endulini</t>
+          <t>Heron Fields</t>
         </is>
       </c>
       <c r="F105" s="7" t="inlineStr">
@@ -5354,10 +5354,10 @@
         </is>
       </c>
       <c r="G105" s="8" t="n">
-        <v>248756.16</v>
+        <v>1212760.27</v>
       </c>
       <c r="H105" s="8" t="n">
-        <v>200000</v>
+        <v>1000000</v>
       </c>
       <c r="I105" s="7" t="b">
         <v>1</v>
@@ -5372,45 +5372,45 @@
     <row r="106">
       <c r="A106" s="7" t="inlineStr">
         <is>
-          <t>ZRIT01</t>
+          <t>ZMBA01</t>
         </is>
       </c>
       <c r="B106" s="7" t="inlineStr">
         <is>
-          <t>Dennis</t>
+          <t>Vincent Mogoane</t>
         </is>
       </c>
       <c r="C106" s="7" t="inlineStr">
         <is>
-          <t>Ritter</t>
+          <t>Mbatha</t>
         </is>
       </c>
       <c r="D106" s="7" t="inlineStr">
         <is>
-          <t>EA304</t>
+          <t>HFB210</t>
         </is>
       </c>
       <c r="E106" s="7" t="inlineStr">
         <is>
-          <t>Endulini</t>
+          <t>Heron Fields</t>
         </is>
       </c>
       <c r="F106" s="7" t="inlineStr">
         <is>
-          <t>2022/12/09</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="G106" s="8" t="n">
-        <v>429243.84</v>
+        <v>259067.12</v>
       </c>
       <c r="H106" s="8" t="n">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="I106" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J106" s="7" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K106" s="7" t="b">
         <v>1</v>
@@ -5419,22 +5419,22 @@
     <row r="107">
       <c r="A107" s="7" t="inlineStr">
         <is>
-          <t>ZLIN01</t>
+          <t>ZSIV01</t>
         </is>
       </c>
       <c r="B107" s="7" t="inlineStr">
         <is>
-          <t>Charmain</t>
+          <t>Gareth William</t>
         </is>
       </c>
       <c r="C107" s="7" t="inlineStr">
         <is>
-          <t>Lines</t>
+          <t>Bedell-Sivright</t>
         </is>
       </c>
       <c r="D107" s="7" t="inlineStr">
         <is>
-          <t>EA209</t>
+          <t>EC302</t>
         </is>
       </c>
       <c r="E107" s="7" t="inlineStr">
@@ -5448,7 +5448,7 @@
         </is>
       </c>
       <c r="G107" s="8" t="n">
-        <v>118439.04</v>
+        <v>121786.3</v>
       </c>
       <c r="H107" s="8" t="n">
         <v>100000</v>
@@ -5457,7 +5457,7 @@
         <v>1</v>
       </c>
       <c r="J107" s="7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K107" s="7" t="b">
         <v>1</v>
@@ -5466,22 +5466,22 @@
     <row r="108">
       <c r="A108" s="7" t="inlineStr">
         <is>
-          <t>ZURB01</t>
+          <t>ZJOU02</t>
         </is>
       </c>
       <c r="B108" s="7" t="inlineStr">
         <is>
-          <t>Robyn-Lea</t>
+          <t>Magaretha Magdalena</t>
         </is>
       </c>
       <c r="C108" s="7" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Joubert</t>
         </is>
       </c>
       <c r="D108" s="7" t="inlineStr">
         <is>
-          <t>EA302</t>
+          <t>EA206</t>
         </is>
       </c>
       <c r="E108" s="7" t="inlineStr">
@@ -5491,11 +5491,11 @@
       </c>
       <c r="F108" s="7" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2023/12/05</t>
         </is>
       </c>
       <c r="G108" s="8" t="n">
-        <v>253323.29</v>
+        <v>256636.99</v>
       </c>
       <c r="H108" s="8" t="n">
         <v>200000</v>
@@ -5513,22 +5513,22 @@
     <row r="109">
       <c r="A109" s="7" t="inlineStr">
         <is>
-          <t>ZDEL01</t>
+          <t>ZRIT01</t>
         </is>
       </c>
       <c r="B109" s="7" t="inlineStr">
         <is>
-          <t>Pieter</t>
+          <t>Dennis</t>
         </is>
       </c>
       <c r="C109" s="7" t="inlineStr">
         <is>
-          <t>Jansen van Vuuren</t>
+          <t>Ritter</t>
         </is>
       </c>
       <c r="D109" s="7" t="inlineStr">
         <is>
-          <t>EA304</t>
+          <t>EA204</t>
         </is>
       </c>
       <c r="E109" s="7" t="inlineStr">
@@ -5542,10 +5542,10 @@
         </is>
       </c>
       <c r="G109" s="8" t="n">
-        <v>291044.52</v>
+        <v>237315.07</v>
       </c>
       <c r="H109" s="8" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="I109" s="7" t="b">
         <v>1</v>
@@ -5560,39 +5560,39 @@
     <row r="110">
       <c r="A110" s="7" t="inlineStr">
         <is>
-          <t>ZDEL01</t>
+          <t>ZRIT01</t>
         </is>
       </c>
       <c r="B110" s="7" t="inlineStr">
         <is>
-          <t>Pieter</t>
+          <t>Dennis</t>
         </is>
       </c>
       <c r="C110" s="7" t="inlineStr">
         <is>
-          <t>Jansen van Vuuren</t>
+          <t>Ritter</t>
         </is>
       </c>
       <c r="D110" s="7" t="inlineStr">
         <is>
-          <t>HFB206</t>
+          <t>EC302</t>
         </is>
       </c>
       <c r="E110" s="7" t="inlineStr">
         <is>
-          <t>Heron Fields</t>
+          <t>Endulini</t>
         </is>
       </c>
       <c r="F110" s="7" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2023/04/04</t>
         </is>
       </c>
       <c r="G110" s="8" t="n">
-        <v>1383143.84</v>
+        <v>248756.16</v>
       </c>
       <c r="H110" s="8" t="n">
-        <v>1000000</v>
+        <v>200000</v>
       </c>
       <c r="I110" s="7" t="b">
         <v>1</v>
@@ -5607,39 +5607,39 @@
     <row r="111">
       <c r="A111" s="7" t="inlineStr">
         <is>
-          <t>ZDEL01</t>
+          <t>ZRIT01</t>
         </is>
       </c>
       <c r="B111" s="7" t="inlineStr">
         <is>
-          <t>Pieter</t>
+          <t>Dennis</t>
         </is>
       </c>
       <c r="C111" s="7" t="inlineStr">
         <is>
-          <t>Jansen van Vuuren</t>
+          <t>Ritter</t>
         </is>
       </c>
       <c r="D111" s="7" t="inlineStr">
         <is>
-          <t>HVN203</t>
+          <t>EA304</t>
         </is>
       </c>
       <c r="E111" s="7" t="inlineStr">
         <is>
-          <t>Heron View</t>
+          <t>Endulini</t>
         </is>
       </c>
       <c r="F111" s="7" t="inlineStr">
         <is>
-          <t>2024/02/01</t>
+          <t>2022/12/09</t>
         </is>
       </c>
       <c r="G111" s="8" t="n">
-        <v>323047.95</v>
+        <v>429243.84</v>
       </c>
       <c r="H111" s="8" t="n">
-        <v>250000</v>
+        <v>400000</v>
       </c>
       <c r="I111" s="7" t="b">
         <v>1</v>
@@ -5654,69 +5654,69 @@
     <row r="112">
       <c r="A112" s="7" t="inlineStr">
         <is>
-          <t>ZCOE01</t>
+          <t>ZRIT01</t>
         </is>
       </c>
       <c r="B112" s="7" t="inlineStr">
         <is>
-          <t>Tinus</t>
+          <t>Dennis</t>
         </is>
       </c>
       <c r="C112" s="7" t="inlineStr">
         <is>
-          <t>Coetzee</t>
+          <t>Ritter</t>
         </is>
       </c>
       <c r="D112" s="7" t="inlineStr">
         <is>
-          <t>EA305</t>
+          <t>HVK103</t>
         </is>
       </c>
       <c r="E112" s="7" t="inlineStr">
         <is>
-          <t>Endulini</t>
+          <t>Heron View</t>
         </is>
       </c>
       <c r="F112" s="7" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/08/26</t>
         </is>
       </c>
       <c r="G112" s="8" t="n">
-        <v>249401.37</v>
+        <v>305353.3</v>
       </c>
       <c r="H112" s="8" t="n">
-        <v>200000</v>
+        <v>248756.16</v>
       </c>
       <c r="I112" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" s="7" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K112" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="7" t="inlineStr">
         <is>
-          <t>ZLEW03</t>
+          <t>ZLIN01</t>
         </is>
       </c>
       <c r="B113" s="7" t="inlineStr">
         <is>
-          <t>Jan Johannes</t>
+          <t>Charmain</t>
         </is>
       </c>
       <c r="C113" s="7" t="inlineStr">
         <is>
-          <t>Lewis</t>
+          <t>Lines</t>
         </is>
       </c>
       <c r="D113" s="7" t="inlineStr">
         <is>
-          <t>EA205</t>
+          <t>EA209</t>
         </is>
       </c>
       <c r="E113" s="7" t="inlineStr">
@@ -5726,11 +5726,11 @@
       </c>
       <c r="F113" s="7" t="inlineStr">
         <is>
-          <t>2023/08/10</t>
+          <t>2023/04/05</t>
         </is>
       </c>
       <c r="G113" s="8" t="n">
-        <v>123830.82</v>
+        <v>118439.04</v>
       </c>
       <c r="H113" s="8" t="n">
         <v>100000</v>
@@ -5748,22 +5748,22 @@
     <row r="114">
       <c r="A114" s="7" t="inlineStr">
         <is>
-          <t>ZLEW03</t>
+          <t>ZURB01</t>
         </is>
       </c>
       <c r="B114" s="7" t="inlineStr">
         <is>
-          <t>Jan Johannes</t>
+          <t>Robyn-Lea</t>
         </is>
       </c>
       <c r="C114" s="7" t="inlineStr">
         <is>
-          <t>Lewis</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="D114" s="7" t="inlineStr">
         <is>
-          <t>EA205</t>
+          <t>EA302</t>
         </is>
       </c>
       <c r="E114" s="7" t="inlineStr">
@@ -5773,14 +5773,14 @@
       </c>
       <c r="F114" s="7" t="inlineStr">
         <is>
-          <t>2023/12/05</t>
+          <t>2023/12/13</t>
         </is>
       </c>
       <c r="G114" s="8" t="n">
-        <v>104479.45</v>
+        <v>253323.29</v>
       </c>
       <c r="H114" s="8" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I114" s="7" t="b">
         <v>1</v>
@@ -5795,39 +5795,39 @@
     <row r="115">
       <c r="A115" s="7" t="inlineStr">
         <is>
-          <t>ZVAN05</t>
+          <t>ZDEL01</t>
         </is>
       </c>
       <c r="B115" s="7" t="inlineStr">
         <is>
-          <t>Hermanus</t>
+          <t>Pieter</t>
         </is>
       </c>
       <c r="C115" s="7" t="inlineStr">
         <is>
-          <t>van der Sandt</t>
+          <t>Jansen van Vuuren</t>
         </is>
       </c>
       <c r="D115" s="7" t="inlineStr">
         <is>
-          <t>HVJ101</t>
+          <t>EA304</t>
         </is>
       </c>
       <c r="E115" s="7" t="inlineStr">
         <is>
-          <t>Heron View</t>
+          <t>Endulini</t>
         </is>
       </c>
       <c r="F115" s="7" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2022/12/09</t>
         </is>
       </c>
       <c r="G115" s="8" t="n">
-        <v>721335.62</v>
+        <v>291044.52</v>
       </c>
       <c r="H115" s="8" t="n">
-        <v>525000</v>
+        <v>250000</v>
       </c>
       <c r="I115" s="7" t="b">
         <v>1</v>
@@ -5836,42 +5836,42 @@
         <v>18</v>
       </c>
       <c r="K115" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="7" t="inlineStr">
         <is>
-          <t>ZVAN07</t>
+          <t>ZDEL01</t>
         </is>
       </c>
       <c r="B116" s="7" t="inlineStr">
         <is>
-          <t>Albertus Stegmann</t>
+          <t>Pieter</t>
         </is>
       </c>
       <c r="C116" s="7" t="inlineStr">
         <is>
-          <t>Van Zyl</t>
+          <t>Jansen van Vuuren</t>
         </is>
       </c>
       <c r="D116" s="7" t="inlineStr">
         <is>
-          <t>EA306</t>
+          <t>HFB206</t>
         </is>
       </c>
       <c r="E116" s="7" t="inlineStr">
         <is>
-          <t>Endulini</t>
+          <t>Heron Fields</t>
         </is>
       </c>
       <c r="F116" s="7" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="G116" s="8" t="n">
-        <v>1310500</v>
+        <v>1383143.84</v>
       </c>
       <c r="H116" s="8" t="n">
         <v>1000000</v>
@@ -5889,36 +5889,36 @@
     <row r="117">
       <c r="A117" s="7" t="inlineStr">
         <is>
-          <t>ZNUN01</t>
+          <t>ZDEL01</t>
         </is>
       </c>
       <c r="B117" s="7" t="inlineStr">
         <is>
-          <t>Francisco Antonio</t>
+          <t>Pieter</t>
         </is>
       </c>
       <c r="C117" s="7" t="inlineStr">
         <is>
-          <t>Nunes</t>
+          <t>Jansen van Vuuren</t>
         </is>
       </c>
       <c r="D117" s="7" t="inlineStr">
         <is>
-          <t>EA209</t>
+          <t>HVN203</t>
         </is>
       </c>
       <c r="E117" s="7" t="inlineStr">
         <is>
-          <t>Endulini</t>
+          <t>Heron View</t>
         </is>
       </c>
       <c r="F117" s="7" t="inlineStr">
         <is>
-          <t>2023/04/04</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="G117" s="8" t="n">
-        <v>304366.44</v>
+        <v>323047.95</v>
       </c>
       <c r="H117" s="8" t="n">
         <v>250000</v>
@@ -5936,22 +5936,22 @@
     <row r="118">
       <c r="A118" s="7" t="inlineStr">
         <is>
-          <t>ZNUN01</t>
+          <t>ZCOE01</t>
         </is>
       </c>
       <c r="B118" s="7" t="inlineStr">
         <is>
-          <t>Francisco Antonio</t>
+          <t>Tinus</t>
         </is>
       </c>
       <c r="C118" s="7" t="inlineStr">
         <is>
-          <t>Nunes</t>
+          <t>Coetzee</t>
         </is>
       </c>
       <c r="D118" s="7" t="inlineStr">
         <is>
-          <t>EA302</t>
+          <t>EA305</t>
         </is>
       </c>
       <c r="E118" s="7" t="inlineStr">
@@ -5961,20 +5961,20 @@
       </c>
       <c r="F118" s="7" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2023/12/13</t>
         </is>
       </c>
       <c r="G118" s="8" t="n">
-        <v>336840.75</v>
+        <v>249401.37</v>
       </c>
       <c r="H118" s="8" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="I118" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J118" s="7" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K118" s="7" t="b">
         <v>1</v>
@@ -5983,22 +5983,22 @@
     <row r="119">
       <c r="A119" s="7" t="inlineStr">
         <is>
-          <t>ZNUN01</t>
+          <t>ZLEW03</t>
         </is>
       </c>
       <c r="B119" s="7" t="inlineStr">
         <is>
-          <t>Francisco Antonio</t>
+          <t>Jan Johannes</t>
         </is>
       </c>
       <c r="C119" s="7" t="inlineStr">
         <is>
-          <t>Nunes</t>
+          <t>Lewis</t>
         </is>
       </c>
       <c r="D119" s="7" t="inlineStr">
         <is>
-          <t>EA304</t>
+          <t>EA205</t>
         </is>
       </c>
       <c r="E119" s="7" t="inlineStr">
@@ -6008,20 +6008,20 @@
       </c>
       <c r="F119" s="7" t="inlineStr">
         <is>
-          <t>2022/12/09</t>
+          <t>2023/08/10</t>
         </is>
       </c>
       <c r="G119" s="8" t="n">
-        <v>278815.07</v>
+        <v>123830.82</v>
       </c>
       <c r="H119" s="8" t="n">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="I119" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J119" s="7" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K119" s="7" t="b">
         <v>1</v>
@@ -6030,17 +6030,17 @@
     <row r="120">
       <c r="A120" s="7" t="inlineStr">
         <is>
-          <t>ZJOU01</t>
+          <t>ZLEW03</t>
         </is>
       </c>
       <c r="B120" s="7" t="inlineStr">
         <is>
-          <t>Kobus</t>
+          <t>Jan Johannes</t>
         </is>
       </c>
       <c r="C120" s="7" t="inlineStr">
         <is>
-          <t>Joubert</t>
+          <t>Lewis</t>
         </is>
       </c>
       <c r="D120" s="7" t="inlineStr">
@@ -6059,7 +6059,7 @@
         </is>
       </c>
       <c r="G120" s="8" t="n">
-        <v>128318.49</v>
+        <v>104479.45</v>
       </c>
       <c r="H120" s="8" t="n">
         <v>100000</v>
@@ -6077,116 +6077,116 @@
     <row r="121">
       <c r="A121" s="7" t="inlineStr">
         <is>
-          <t>ZWAL02</t>
+          <t>ZVAN05</t>
         </is>
       </c>
       <c r="B121" s="7" t="inlineStr">
         <is>
-          <t>Johann</t>
+          <t>Hermanus</t>
         </is>
       </c>
       <c r="C121" s="7" t="inlineStr">
         <is>
-          <t>Wallander</t>
+          <t>van der Sandt</t>
         </is>
       </c>
       <c r="D121" s="7" t="inlineStr">
         <is>
-          <t>EA209</t>
+          <t>HVJ101</t>
         </is>
       </c>
       <c r="E121" s="7" t="inlineStr">
         <is>
-          <t>Endulini</t>
+          <t>Heron View</t>
         </is>
       </c>
       <c r="F121" s="7" t="inlineStr">
         <is>
-          <t>2023/04/04</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="G121" s="8" t="n">
-        <v>118383.56</v>
+        <v>721335.62</v>
       </c>
       <c r="H121" s="8" t="n">
-        <v>100000</v>
+        <v>525000</v>
       </c>
       <c r="I121" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J121" s="7" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K121" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="7" t="inlineStr">
         <is>
-          <t>ZWAL02</t>
+          <t>ZVAN07</t>
         </is>
       </c>
       <c r="B122" s="7" t="inlineStr">
         <is>
-          <t>Johann</t>
+          <t>Albertus Stegmann</t>
         </is>
       </c>
       <c r="C122" s="7" t="inlineStr">
         <is>
-          <t>Wallander</t>
+          <t>Van Zyl</t>
         </is>
       </c>
       <c r="D122" s="7" t="inlineStr">
         <is>
-          <t>HVJ102</t>
+          <t>EA306</t>
         </is>
       </c>
       <c r="E122" s="7" t="inlineStr">
         <is>
-          <t>Heron View</t>
+          <t>Endulini</t>
         </is>
       </c>
       <c r="F122" s="7" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="G122" s="8" t="n">
-        <v>124002.74</v>
+        <v>1310500</v>
       </c>
       <c r="H122" s="8" t="n">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="I122" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J122" s="7" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K122" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="7" t="inlineStr">
         <is>
-          <t>ZWIL02</t>
+          <t>ZNUN01</t>
         </is>
       </c>
       <c r="B123" s="7" t="inlineStr">
         <is>
-          <t>Pia Inga</t>
+          <t>Francisco Antonio</t>
         </is>
       </c>
       <c r="C123" s="7" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Nunes</t>
         </is>
       </c>
       <c r="D123" s="7" t="inlineStr">
         <is>
-          <t>EA303</t>
+          <t>EA209</t>
         </is>
       </c>
       <c r="E123" s="7" t="inlineStr">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="G123" s="8" t="n">
-        <v>233915.07</v>
+        <v>304366.44</v>
       </c>
       <c r="H123" s="8" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="I123" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J123" s="7" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K123" s="7" t="b">
         <v>1</v>
@@ -6218,22 +6218,22 @@
     <row r="124">
       <c r="A124" s="7" t="inlineStr">
         <is>
-          <t>ZWIL02</t>
+          <t>ZNUN01</t>
         </is>
       </c>
       <c r="B124" s="7" t="inlineStr">
         <is>
-          <t>Pia Inga</t>
+          <t>Francisco Antonio</t>
         </is>
       </c>
       <c r="C124" s="7" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Nunes</t>
         </is>
       </c>
       <c r="D124" s="7" t="inlineStr">
         <is>
-          <t>EA307</t>
+          <t>EA302</t>
         </is>
       </c>
       <c r="E124" s="7" t="inlineStr">
@@ -6243,20 +6243,20 @@
       </c>
       <c r="F124" s="7" t="inlineStr">
         <is>
-          <t>2023/04/04</t>
+          <t>2024/02/13</t>
         </is>
       </c>
       <c r="G124" s="8" t="n">
-        <v>348969.86</v>
+        <v>336840.75</v>
       </c>
       <c r="H124" s="8" t="n">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="I124" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J124" s="7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K124" s="7" t="b">
         <v>1</v>
@@ -6265,22 +6265,22 @@
     <row r="125">
       <c r="A125" s="7" t="inlineStr">
         <is>
-          <t>ZNOR01</t>
+          <t>ZNUN01</t>
         </is>
       </c>
       <c r="B125" s="7" t="inlineStr">
         <is>
-          <t>Mari-Ann</t>
+          <t>Francisco Antonio</t>
         </is>
       </c>
       <c r="C125" s="7" t="inlineStr">
         <is>
-          <t>Norman</t>
+          <t>Nunes</t>
         </is>
       </c>
       <c r="D125" s="7" t="inlineStr">
         <is>
-          <t>EA302</t>
+          <t>EA304</t>
         </is>
       </c>
       <c r="E125" s="7" t="inlineStr">
@@ -6290,20 +6290,20 @@
       </c>
       <c r="F125" s="7" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2022/12/09</t>
         </is>
       </c>
       <c r="G125" s="8" t="n">
-        <v>125332.88</v>
+        <v>278815.07</v>
       </c>
       <c r="H125" s="8" t="n">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="I125" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J125" s="7" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K125" s="7" t="b">
         <v>1</v>
@@ -6312,22 +6312,22 @@
     <row r="126">
       <c r="A126" s="7" t="inlineStr">
         <is>
-          <t>ZKRIE0</t>
+          <t>ZJOU01</t>
         </is>
       </c>
       <c r="B126" s="7" t="inlineStr">
         <is>
-          <t>Johan Christiaan Rudolph</t>
+          <t>Kobus</t>
         </is>
       </c>
       <c r="C126" s="7" t="inlineStr">
         <is>
-          <t>Kriek</t>
+          <t>Joubert</t>
         </is>
       </c>
       <c r="D126" s="7" t="inlineStr">
         <is>
-          <t>EA209</t>
+          <t>EA205</t>
         </is>
       </c>
       <c r="E126" s="7" t="inlineStr">
@@ -6337,14 +6337,14 @@
       </c>
       <c r="F126" s="7" t="inlineStr">
         <is>
-          <t>2023/04/05</t>
+          <t>2023/12/05</t>
         </is>
       </c>
       <c r="G126" s="8" t="n">
-        <v>296097.6</v>
+        <v>128318.49</v>
       </c>
       <c r="H126" s="8" t="n">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="I126" s="7" t="b">
         <v>1</v>
@@ -6359,22 +6359,22 @@
     <row r="127">
       <c r="A127" s="7" t="inlineStr">
         <is>
-          <t>ZJAN04</t>
+          <t>ZWAL02</t>
         </is>
       </c>
       <c r="B127" s="7" t="inlineStr">
         <is>
-          <t>Wilma</t>
+          <t>Johann</t>
         </is>
       </c>
       <c r="C127" s="7" t="inlineStr">
         <is>
-          <t>Jansen van Veuren</t>
+          <t>Wallander</t>
         </is>
       </c>
       <c r="D127" s="7" t="inlineStr">
         <is>
-          <t>EA302</t>
+          <t>EA209</t>
         </is>
       </c>
       <c r="E127" s="7" t="inlineStr">
@@ -6384,14 +6384,14 @@
       </c>
       <c r="F127" s="7" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2023/04/04</t>
         </is>
       </c>
       <c r="G127" s="8" t="n">
-        <v>255994.52</v>
+        <v>118383.56</v>
       </c>
       <c r="H127" s="8" t="n">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="I127" s="7" t="b">
         <v>1</v>
@@ -6406,69 +6406,69 @@
     <row r="128">
       <c r="A128" s="7" t="inlineStr">
         <is>
-          <t>ZMAN01</t>
+          <t>ZWAL02</t>
         </is>
       </c>
       <c r="B128" s="7" t="inlineStr">
         <is>
-          <t>Emma Irene</t>
+          <t>Johann</t>
         </is>
       </c>
       <c r="C128" s="7" t="inlineStr">
         <is>
-          <t>Manuel</t>
+          <t>Wallander</t>
         </is>
       </c>
       <c r="D128" s="7" t="inlineStr">
         <is>
-          <t>EA305</t>
+          <t>HVJ102</t>
         </is>
       </c>
       <c r="E128" s="7" t="inlineStr">
         <is>
-          <t>Endulini</t>
+          <t>Heron View</t>
         </is>
       </c>
       <c r="F128" s="7" t="inlineStr">
         <is>
-          <t>2024/02/02</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="G128" s="8" t="n">
-        <v>1055183.56</v>
+        <v>124002.74</v>
       </c>
       <c r="H128" s="8" t="n">
-        <v>800000</v>
+        <v>100000</v>
       </c>
       <c r="I128" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J128" s="7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K128" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="7" t="inlineStr">
         <is>
-          <t>ZKLO01</t>
+          <t>ZWIL02</t>
         </is>
       </c>
       <c r="B129" s="7" t="inlineStr">
         <is>
-          <t>Louis</t>
+          <t>Pia Inga</t>
         </is>
       </c>
       <c r="C129" s="7" t="inlineStr">
         <is>
-          <t>Kloppers</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="D129" s="7" t="inlineStr">
         <is>
-          <t>EA307</t>
+          <t>EA303</t>
         </is>
       </c>
       <c r="E129" s="7" t="inlineStr">
@@ -6478,11 +6478,11 @@
       </c>
       <c r="F129" s="7" t="inlineStr">
         <is>
-          <t>2023/05/19</t>
+          <t>2023/04/04</t>
         </is>
       </c>
       <c r="G129" s="8" t="n">
-        <v>230683.56</v>
+        <v>233915.07</v>
       </c>
       <c r="H129" s="8" t="n">
         <v>200000</v>
@@ -6500,22 +6500,22 @@
     <row r="130">
       <c r="A130" s="7" t="inlineStr">
         <is>
-          <t>ZARB01</t>
+          <t>ZWIL02</t>
         </is>
       </c>
       <c r="B130" s="7" t="inlineStr">
         <is>
-          <t>Hermanus Gerhardus (Gerhard)</t>
+          <t>Pia Inga</t>
         </is>
       </c>
       <c r="C130" s="7" t="inlineStr">
         <is>
-          <t>Jansen van Vuuren</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="D130" s="7" t="inlineStr">
         <is>
-          <t>EA207</t>
+          <t>EA307</t>
         </is>
       </c>
       <c r="E130" s="7" t="inlineStr">
@@ -6525,20 +6525,20 @@
       </c>
       <c r="F130" s="7" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2023/04/04</t>
         </is>
       </c>
       <c r="G130" s="8" t="n">
-        <v>1337232.88</v>
+        <v>348969.86</v>
       </c>
       <c r="H130" s="8" t="n">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="I130" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J130" s="7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K130" s="7" t="b">
         <v>1</v>
@@ -6547,22 +6547,22 @@
     <row r="131">
       <c r="A131" s="7" t="inlineStr">
         <is>
-          <t>ZVIS02</t>
+          <t>ZNOR01</t>
         </is>
       </c>
       <c r="B131" s="7" t="inlineStr">
         <is>
-          <t>Jimke</t>
+          <t>Mari-Ann</t>
         </is>
       </c>
       <c r="C131" s="7" t="inlineStr">
         <is>
-          <t>Visser</t>
+          <t>Norman</t>
         </is>
       </c>
       <c r="D131" s="7" t="inlineStr">
         <is>
-          <t>EB101</t>
+          <t>EA302</t>
         </is>
       </c>
       <c r="E131" s="7" t="inlineStr">
@@ -6572,20 +6572,20 @@
       </c>
       <c r="F131" s="7" t="inlineStr">
         <is>
-          <t>2023/05/22</t>
+          <t>2024/01/09</t>
         </is>
       </c>
       <c r="G131" s="8" t="n">
-        <v>1194410.96</v>
+        <v>125332.88</v>
       </c>
       <c r="H131" s="8" t="n">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="I131" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J131" s="7" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K131" s="7" t="b">
         <v>1</v>
@@ -6594,86 +6594,86 @@
     <row r="132">
       <c r="A132" s="7" t="inlineStr">
         <is>
-          <t>ZVIS02</t>
+          <t>ZKRIE0</t>
         </is>
       </c>
       <c r="B132" s="7" t="inlineStr">
         <is>
-          <t>Jimke</t>
+          <t>Johan Christiaan Rudolph</t>
         </is>
       </c>
       <c r="C132" s="7" t="inlineStr">
         <is>
-          <t>Visser</t>
+          <t>Kriek</t>
         </is>
       </c>
       <c r="D132" s="7" t="inlineStr">
         <is>
-          <t>HVJ402</t>
+          <t>EA209</t>
         </is>
       </c>
       <c r="E132" s="7" t="inlineStr">
         <is>
-          <t>Heron View</t>
+          <t>Endulini</t>
         </is>
       </c>
       <c r="F132" s="7" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2023/04/05</t>
         </is>
       </c>
       <c r="G132" s="8" t="n">
-        <v>1322726.03</v>
+        <v>296097.6</v>
       </c>
       <c r="H132" s="8" t="n">
-        <v>1000000</v>
+        <v>250000</v>
       </c>
       <c r="I132" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" s="7" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K132" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="7" t="inlineStr">
         <is>
-          <t>ZHEN01</t>
+          <t>ZJAN04</t>
         </is>
       </c>
       <c r="B133" s="7" t="inlineStr">
         <is>
-          <t>Theodore Shane</t>
+          <t>Wilma</t>
         </is>
       </c>
       <c r="C133" s="7" t="inlineStr">
         <is>
-          <t>Hendricks</t>
+          <t>Jansen van Veuren</t>
         </is>
       </c>
       <c r="D133" s="7" t="inlineStr">
         <is>
-          <t>HVD103</t>
+          <t>EA302</t>
         </is>
       </c>
       <c r="E133" s="7" t="inlineStr">
         <is>
-          <t>Heron View</t>
+          <t>Endulini</t>
         </is>
       </c>
       <c r="F133" s="7" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/08</t>
         </is>
       </c>
       <c r="G133" s="8" t="n">
-        <v>121489.04</v>
+        <v>255994.52</v>
       </c>
       <c r="H133" s="8" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I133" s="7" t="b">
         <v>1</v>
@@ -6688,22 +6688,22 @@
     <row r="134">
       <c r="A134" s="7" t="inlineStr">
         <is>
-          <t>ZGER01</t>
+          <t>ZMAN01</t>
         </is>
       </c>
       <c r="B134" s="7" t="inlineStr">
         <is>
-          <t>Philip Anton</t>
+          <t>Emma Irene</t>
         </is>
       </c>
       <c r="C134" s="7" t="inlineStr">
         <is>
-          <t>Gerber</t>
+          <t>Manuel</t>
         </is>
       </c>
       <c r="D134" s="7" t="inlineStr">
         <is>
-          <t>EB102</t>
+          <t>EA305</t>
         </is>
       </c>
       <c r="E134" s="7" t="inlineStr">
@@ -6713,20 +6713,20 @@
       </c>
       <c r="F134" s="7" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="G134" s="8" t="n">
-        <v>1326082.19</v>
+        <v>1055183.56</v>
       </c>
       <c r="H134" s="8" t="n">
-        <v>1000000</v>
+        <v>800000</v>
       </c>
       <c r="I134" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J134" s="7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K134" s="7" t="b">
         <v>1</v>
@@ -6735,36 +6735,36 @@
     <row r="135">
       <c r="A135" s="7" t="inlineStr">
         <is>
-          <t>ZVAL02</t>
+          <t>ZKLO01</t>
         </is>
       </c>
       <c r="B135" s="7" t="inlineStr">
         <is>
-          <t>Himal Dipak</t>
+          <t>Louis</t>
         </is>
       </c>
       <c r="C135" s="7" t="inlineStr">
         <is>
-          <t>Vallabh</t>
+          <t>Kloppers</t>
         </is>
       </c>
       <c r="D135" s="7" t="inlineStr">
         <is>
-          <t>HVD104</t>
+          <t>EA307</t>
         </is>
       </c>
       <c r="E135" s="7" t="inlineStr">
         <is>
-          <t>Heron View</t>
+          <t>Endulini</t>
         </is>
       </c>
       <c r="F135" s="7" t="inlineStr">
         <is>
-          <t>2024/02/01</t>
+          <t>2023/05/19</t>
         </is>
       </c>
       <c r="G135" s="8" t="n">
-        <v>247676.71</v>
+        <v>230683.56</v>
       </c>
       <c r="H135" s="8" t="n">
         <v>200000</v>
@@ -6782,45 +6782,45 @@
     <row r="136">
       <c r="A136" s="7" t="inlineStr">
         <is>
-          <t>ZZYL04</t>
+          <t>ZARB01</t>
         </is>
       </c>
       <c r="B136" s="7" t="inlineStr">
         <is>
-          <t>Steven Michael</t>
+          <t>Hermanus Gerhardus (Gerhard)</t>
         </is>
       </c>
       <c r="C136" s="7" t="inlineStr">
         <is>
-          <t>Zylstra</t>
+          <t>Jansen van Vuuren</t>
         </is>
       </c>
       <c r="D136" s="7" t="inlineStr">
         <is>
-          <t>HVD103</t>
+          <t>EA207</t>
         </is>
       </c>
       <c r="E136" s="7" t="inlineStr">
         <is>
-          <t>Heron View</t>
+          <t>Endulini</t>
         </is>
       </c>
       <c r="F136" s="7" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2023/12/14</t>
         </is>
       </c>
       <c r="G136" s="8" t="n">
-        <v>122917.81</v>
+        <v>1337232.88</v>
       </c>
       <c r="H136" s="8" t="n">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="I136" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J136" s="7" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K136" s="7" t="b">
         <v>1</v>
@@ -6829,69 +6829,69 @@
     <row r="137">
       <c r="A137" s="7" t="inlineStr">
         <is>
-          <t>ZOOS01</t>
+          <t>ZVIS02</t>
         </is>
       </c>
       <c r="B137" s="7" t="inlineStr">
         <is>
-          <t>Diana</t>
+          <t>Jimke</t>
         </is>
       </c>
       <c r="C137" s="7" t="inlineStr">
         <is>
-          <t>Oosthuizen</t>
+          <t>Visser</t>
         </is>
       </c>
       <c r="D137" s="7" t="inlineStr">
         <is>
-          <t>HVD304</t>
+          <t>EB101</t>
         </is>
       </c>
       <c r="E137" s="7" t="inlineStr">
         <is>
-          <t>Heron View</t>
+          <t>Endulini</t>
         </is>
       </c>
       <c r="F137" s="7" t="inlineStr">
         <is>
-          <t>2024/06/21</t>
+          <t>2023/05/22</t>
         </is>
       </c>
       <c r="G137" s="8" t="n">
-        <v>192406.85</v>
+        <v>1194410.96</v>
       </c>
       <c r="H137" s="8" t="n">
-        <v>150000</v>
+        <v>1000000</v>
       </c>
       <c r="I137" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J137" s="7" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K137" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="7" t="inlineStr">
         <is>
-          <t>ZBUM01</t>
+          <t>ZVIS02</t>
         </is>
       </c>
       <c r="B138" s="7" t="inlineStr">
         <is>
-          <t>Andre Gottfried</t>
+          <t>Jimke</t>
         </is>
       </c>
       <c r="C138" s="7" t="inlineStr">
         <is>
-          <t>Brummer</t>
+          <t>Visser</t>
         </is>
       </c>
       <c r="D138" s="7" t="inlineStr">
         <is>
-          <t>HVJ201</t>
+          <t>HVJ402</t>
         </is>
       </c>
       <c r="E138" s="7" t="inlineStr">
@@ -6901,17 +6901,17 @@
       </c>
       <c r="F138" s="7" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2024/05/31</t>
         </is>
       </c>
       <c r="G138" s="8" t="n">
-        <v>683821.92</v>
+        <v>1322726.03</v>
       </c>
       <c r="H138" s="8" t="n">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="I138" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" s="7" t="n">
         <v>18</v>
@@ -6923,22 +6923,22 @@
     <row r="139">
       <c r="A139" s="7" t="inlineStr">
         <is>
-          <t>ZBUM01</t>
+          <t>ZHEN01</t>
         </is>
       </c>
       <c r="B139" s="7" t="inlineStr">
         <is>
-          <t>Andre Gottfried</t>
+          <t>Theodore Shane</t>
         </is>
       </c>
       <c r="C139" s="7" t="inlineStr">
         <is>
-          <t>Brummer</t>
+          <t>Hendricks</t>
         </is>
       </c>
       <c r="D139" s="7" t="inlineStr">
         <is>
-          <t>HVJ203</t>
+          <t>HVD103</t>
         </is>
       </c>
       <c r="E139" s="7" t="inlineStr">
@@ -6948,91 +6948,91 @@
       </c>
       <c r="F139" s="7" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2023/12/12</t>
         </is>
       </c>
       <c r="G139" s="8" t="n">
-        <v>1371630.14</v>
+        <v>121489.04</v>
       </c>
       <c r="H139" s="8" t="n">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="I139" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" s="7" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K139" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="7" t="inlineStr">
         <is>
-          <t>ZVER04</t>
+          <t>ZGER01</t>
         </is>
       </c>
       <c r="B140" s="7" t="inlineStr">
         <is>
-          <t>Floris Nicolaas</t>
+          <t>Philip Anton</t>
         </is>
       </c>
       <c r="C140" s="7" t="inlineStr">
         <is>
-          <t>Vermeulen</t>
+          <t>Gerber</t>
         </is>
       </c>
       <c r="D140" s="7" t="inlineStr">
         <is>
-          <t>HVJ302</t>
+          <t>EB102</t>
         </is>
       </c>
       <c r="E140" s="7" t="inlineStr">
         <is>
-          <t>Heron View</t>
+          <t>Endulini</t>
         </is>
       </c>
       <c r="F140" s="7" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/02/13</t>
         </is>
       </c>
       <c r="G140" s="8" t="n">
-        <v>683441.78</v>
+        <v>1326082.19</v>
       </c>
       <c r="H140" s="8" t="n">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="I140" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" s="7" t="n">
         <v>18</v>
       </c>
       <c r="K140" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="7" t="inlineStr">
         <is>
-          <t>ZVER04</t>
+          <t>ZVAL02</t>
         </is>
       </c>
       <c r="B141" s="7" t="inlineStr">
         <is>
-          <t>Floris Nicolaas</t>
+          <t>Himal Dipak</t>
         </is>
       </c>
       <c r="C141" s="7" t="inlineStr">
         <is>
-          <t>Vermeulen</t>
+          <t>Vallabh</t>
         </is>
       </c>
       <c r="D141" s="7" t="inlineStr">
         <is>
-          <t>HVJ303</t>
+          <t>HVD104</t>
         </is>
       </c>
       <c r="E141" s="7" t="inlineStr">
@@ -7042,44 +7042,44 @@
       </c>
       <c r="F141" s="7" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="G141" s="8" t="n">
-        <v>1327431.51</v>
+        <v>247676.71</v>
       </c>
       <c r="H141" s="8" t="n">
-        <v>1000000</v>
+        <v>200000</v>
       </c>
       <c r="I141" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" s="7" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K141" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="7" t="inlineStr">
         <is>
-          <t>ZSMI03</t>
+          <t>ZZYL04</t>
         </is>
       </c>
       <c r="B142" s="7" t="inlineStr">
         <is>
-          <t>Eugene Patrick</t>
+          <t>Steven Michael</t>
         </is>
       </c>
       <c r="C142" s="7" t="inlineStr">
         <is>
-          <t>Smit</t>
+          <t>Zylstra</t>
         </is>
       </c>
       <c r="D142" s="7" t="inlineStr">
         <is>
-          <t>HVJ201</t>
+          <t>HVD103</t>
         </is>
       </c>
       <c r="E142" s="7" t="inlineStr">
@@ -7089,44 +7089,44 @@
       </c>
       <c r="F142" s="7" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2024/01/08</t>
         </is>
       </c>
       <c r="G142" s="8" t="n">
-        <v>395247.95</v>
+        <v>122917.81</v>
       </c>
       <c r="H142" s="8" t="n">
-        <v>300000</v>
+        <v>100000</v>
       </c>
       <c r="I142" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J142" s="7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K142" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="7" t="inlineStr">
         <is>
-          <t>ZMAN02</t>
+          <t>ZOOS01</t>
         </is>
       </c>
       <c r="B143" s="7" t="inlineStr">
         <is>
-          <t>Ilse</t>
+          <t>Diana</t>
         </is>
       </c>
       <c r="C143" s="7" t="inlineStr">
         <is>
-          <t>Mans (Witberg)</t>
+          <t>Oosthuizen</t>
         </is>
       </c>
       <c r="D143" s="7" t="inlineStr">
         <is>
-          <t>HVJ302</t>
+          <t>HVD304</t>
         </is>
       </c>
       <c r="E143" s="7" t="inlineStr">
@@ -7136,20 +7136,20 @@
       </c>
       <c r="F143" s="7" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="G143" s="8" t="n">
-        <v>680883.5600000001</v>
+        <v>192406.85</v>
       </c>
       <c r="H143" s="8" t="n">
-        <v>500000</v>
+        <v>150000</v>
       </c>
       <c r="I143" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" s="7" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K143" s="7" t="b">
         <v>0</v>
@@ -7158,22 +7158,22 @@
     <row r="144">
       <c r="A144" s="7" t="inlineStr">
         <is>
-          <t>ZHAL03</t>
+          <t>ZBUM01</t>
         </is>
       </c>
       <c r="B144" s="7" t="inlineStr">
         <is>
-          <t>Graeme Haffenden</t>
+          <t>Andre Gottfried</t>
         </is>
       </c>
       <c r="C144" s="7" t="inlineStr">
         <is>
-          <t>Hall</t>
+          <t>Brummer</t>
         </is>
       </c>
       <c r="D144" s="7" t="inlineStr">
         <is>
-          <t>HVD102</t>
+          <t>HVJ201</t>
         </is>
       </c>
       <c r="E144" s="7" t="inlineStr">
@@ -7183,11 +7183,11 @@
       </c>
       <c r="F144" s="7" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="G144" s="8" t="n">
-        <v>604260.27</v>
+        <v>683821.92</v>
       </c>
       <c r="H144" s="8" t="n">
         <v>500000</v>
@@ -7196,31 +7196,31 @@
         <v>1</v>
       </c>
       <c r="J144" s="7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K144" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="7" t="inlineStr">
         <is>
-          <t>ZLES01</t>
+          <t>ZBUM01</t>
         </is>
       </c>
       <c r="B145" s="7" t="inlineStr">
         <is>
-          <t>Megan Frances</t>
+          <t>Andre Gottfried</t>
         </is>
       </c>
       <c r="C145" s="7" t="inlineStr">
         <is>
-          <t>Leslie</t>
+          <t>Brummer</t>
         </is>
       </c>
       <c r="D145" s="7" t="inlineStr">
         <is>
-          <t>HVD103</t>
+          <t>HVJ203</t>
         </is>
       </c>
       <c r="E145" s="7" t="inlineStr">
@@ -7230,185 +7230,185 @@
       </c>
       <c r="F145" s="7" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="G145" s="8" t="n">
-        <v>167914.73</v>
+        <v>1371630.14</v>
       </c>
       <c r="H145" s="8" t="n">
-        <v>150000</v>
+        <v>1000000</v>
       </c>
       <c r="I145" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" s="7" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K145" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="7" t="inlineStr">
         <is>
-          <t>ZGEC01</t>
+          <t>ZVER04</t>
         </is>
       </c>
       <c r="B146" s="7" t="inlineStr">
         <is>
-          <t>Gordon</t>
+          <t>Floris Nicolaas</t>
         </is>
       </c>
       <c r="C146" s="7" t="inlineStr">
         <is>
-          <t>Gecko</t>
+          <t>Vermeulen</t>
         </is>
       </c>
       <c r="D146" s="7" t="inlineStr">
         <is>
-          <t>HFB203</t>
+          <t>HVJ302</t>
         </is>
       </c>
       <c r="E146" s="7" t="inlineStr">
         <is>
-          <t>Heron Fields</t>
+          <t>Heron View</t>
         </is>
       </c>
       <c r="F146" s="7" t="inlineStr">
         <is>
-          <t>2022/11/30</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="G146" s="8" t="n">
-        <v>767449.3199999999</v>
+        <v>683441.78</v>
       </c>
       <c r="H146" s="8" t="n">
-        <v>600000</v>
+        <v>500000</v>
       </c>
       <c r="I146" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" s="7" t="n">
         <v>18</v>
       </c>
       <c r="K146" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="7" t="inlineStr">
         <is>
-          <t>ZGEC01</t>
+          <t>ZVER04</t>
         </is>
       </c>
       <c r="B147" s="7" t="inlineStr">
         <is>
-          <t>Gordon</t>
+          <t>Floris Nicolaas</t>
         </is>
       </c>
       <c r="C147" s="7" t="inlineStr">
         <is>
-          <t>Gecko</t>
+          <t>Vermeulen</t>
         </is>
       </c>
       <c r="D147" s="7" t="inlineStr">
         <is>
-          <t>HFB212</t>
+          <t>HVJ303</t>
         </is>
       </c>
       <c r="E147" s="7" t="inlineStr">
         <is>
-          <t>Heron Fields</t>
+          <t>Heron View</t>
         </is>
       </c>
       <c r="F147" s="7" t="inlineStr">
         <is>
-          <t>2023/05/10</t>
+          <t>2024/05/31</t>
         </is>
       </c>
       <c r="G147" s="8" t="n">
-        <v>1222631.51</v>
+        <v>1327431.51</v>
       </c>
       <c r="H147" s="8" t="n">
-        <v>900000</v>
+        <v>1000000</v>
       </c>
       <c r="I147" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" s="7" t="n">
         <v>18</v>
       </c>
       <c r="K147" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="7" t="inlineStr">
         <is>
-          <t>ZGEC01</t>
+          <t>ZVER04</t>
         </is>
       </c>
       <c r="B148" s="7" t="inlineStr">
         <is>
-          <t>Gordon</t>
+          <t>Floris Nicolaas</t>
         </is>
       </c>
       <c r="C148" s="7" t="inlineStr">
         <is>
-          <t>Gecko</t>
+          <t>Vermeulen</t>
         </is>
       </c>
       <c r="D148" s="7" t="inlineStr">
         <is>
-          <t>EA303</t>
+          <t>HVJ403</t>
         </is>
       </c>
       <c r="E148" s="7" t="inlineStr">
         <is>
-          <t>Endulini</t>
+          <t>Heron View</t>
         </is>
       </c>
       <c r="F148" s="7" t="inlineStr">
         <is>
-          <t>2022/12/09</t>
+          <t>2024/08/26</t>
         </is>
       </c>
       <c r="G148" s="8" t="n">
-        <v>566390.41</v>
+        <v>685167.8100000001</v>
       </c>
       <c r="H148" s="8" t="n">
         <v>500000</v>
       </c>
       <c r="I148" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" s="7" t="n">
         <v>18</v>
       </c>
       <c r="K148" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="7" t="inlineStr">
         <is>
-          <t>ZHAY01</t>
+          <t>ZSMI03</t>
         </is>
       </c>
       <c r="B149" s="7" t="inlineStr">
         <is>
-          <t>Johannes Wynand</t>
+          <t>Eugene Patrick</t>
         </is>
       </c>
       <c r="C149" s="7" t="inlineStr">
         <is>
-          <t>Haywood</t>
+          <t>Smit</t>
         </is>
       </c>
       <c r="D149" s="7" t="inlineStr">
         <is>
-          <t>HVD302</t>
+          <t>HVJ201</t>
         </is>
       </c>
       <c r="E149" s="7" t="inlineStr">
@@ -7418,20 +7418,20 @@
       </c>
       <c r="F149" s="7" t="inlineStr">
         <is>
-          <t>2024/07/31</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="G149" s="8" t="n">
-        <v>1349499.59</v>
+        <v>395247.95</v>
       </c>
       <c r="H149" s="8" t="n">
-        <v>1320414.3</v>
+        <v>300000</v>
       </c>
       <c r="I149" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J149" s="7" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K149" s="7" t="b">
         <v>0</v>
@@ -7440,22 +7440,22 @@
     <row r="150">
       <c r="A150" s="7" t="inlineStr">
         <is>
-          <t>ZHAY01</t>
+          <t>ZSMI03</t>
         </is>
       </c>
       <c r="B150" s="7" t="inlineStr">
         <is>
-          <t>Johannes Wynand</t>
+          <t>Eugene Patrick</t>
         </is>
       </c>
       <c r="C150" s="7" t="inlineStr">
         <is>
-          <t>Haywood</t>
+          <t>Smit</t>
         </is>
       </c>
       <c r="D150" s="7" t="inlineStr">
         <is>
-          <t>HVD303</t>
+          <t>HVJ301</t>
         </is>
       </c>
       <c r="E150" s="7" t="inlineStr">
@@ -7465,20 +7465,20 @@
       </c>
       <c r="F150" s="7" t="inlineStr">
         <is>
-          <t>2024/07/31</t>
+          <t>2024/08/26</t>
         </is>
       </c>
       <c r="G150" s="8" t="n">
-        <v>807102.04</v>
+        <v>397746.58</v>
       </c>
       <c r="H150" s="8" t="n">
-        <v>789706.85</v>
+        <v>300000</v>
       </c>
       <c r="I150" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" s="7" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K150" s="7" t="b">
         <v>0</v>
@@ -7487,22 +7487,22 @@
     <row r="151">
       <c r="A151" s="7" t="inlineStr">
         <is>
-          <t>ZHAY01</t>
+          <t>ZMAN02</t>
         </is>
       </c>
       <c r="B151" s="7" t="inlineStr">
         <is>
-          <t>Johannes Wynand</t>
+          <t>Ilse</t>
         </is>
       </c>
       <c r="C151" s="7" t="inlineStr">
         <is>
-          <t>Haywood</t>
+          <t>Mans (Witberg)</t>
         </is>
       </c>
       <c r="D151" s="7" t="inlineStr">
         <is>
-          <t>HVD304</t>
+          <t>HVJ301</t>
         </is>
       </c>
       <c r="E151" s="7" t="inlineStr">
@@ -7512,32 +7512,502 @@
       </c>
       <c r="F151" s="7" t="inlineStr">
         <is>
-          <t>2024/07/31</t>
+          <t>2024/08/26</t>
         </is>
       </c>
       <c r="G151" s="8" t="n">
-        <v>194726.28</v>
+        <v>750870.55</v>
       </c>
       <c r="H151" s="8" t="n">
-        <v>192406.85</v>
+        <v>550000</v>
       </c>
       <c r="I151" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" s="7" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K151" s="7" t="b">
         <v>0</v>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" s="7" t="inlineStr">
+        <is>
+          <t>ZMAN02</t>
+        </is>
+      </c>
+      <c r="B152" s="7" t="inlineStr">
+        <is>
+          <t>Ilse</t>
+        </is>
+      </c>
+      <c r="C152" s="7" t="inlineStr">
+        <is>
+          <t>Mans (Witberg)</t>
+        </is>
+      </c>
+      <c r="D152" s="7" t="inlineStr">
+        <is>
+          <t>HVJ302</t>
+        </is>
+      </c>
+      <c r="E152" s="7" t="inlineStr">
+        <is>
+          <t>Heron View</t>
+        </is>
+      </c>
+      <c r="F152" s="7" t="inlineStr">
+        <is>
+          <t>2024/08/19</t>
+        </is>
+      </c>
+      <c r="G152" s="8" t="n">
+        <v>680883.5600000001</v>
+      </c>
+      <c r="H152" s="8" t="n">
+        <v>500000</v>
+      </c>
+      <c r="I152" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J152" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="K152" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="153">
-      <c r="G153" s="9">
-        <f>SUBTOTAL(9, G4:G151)</f>
+      <c r="A153" s="7" t="inlineStr">
+        <is>
+          <t>ZFOU02</t>
+        </is>
+      </c>
+      <c r="B153" s="7" t="inlineStr">
+        <is>
+          <t>Clyde Michael</t>
+        </is>
+      </c>
+      <c r="C153" s="7" t="inlineStr">
+        <is>
+          <t>Fountain</t>
+        </is>
+      </c>
+      <c r="D153" s="7" t="inlineStr">
+        <is>
+          <t>HVJ403</t>
+        </is>
+      </c>
+      <c r="E153" s="7" t="inlineStr">
+        <is>
+          <t>Heron View</t>
+        </is>
+      </c>
+      <c r="F153" s="7" t="inlineStr">
+        <is>
+          <t>2024/08/26</t>
+        </is>
+      </c>
+      <c r="G153" s="8" t="n">
+        <v>682506.85</v>
+      </c>
+      <c r="H153" s="8" t="n">
+        <v>500000</v>
+      </c>
+      <c r="I153" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J153" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="K153" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="7" t="inlineStr">
+        <is>
+          <t>ZHAL03</t>
+        </is>
+      </c>
+      <c r="B154" s="7" t="inlineStr">
+        <is>
+          <t>Graeme Haffenden</t>
+        </is>
+      </c>
+      <c r="C154" s="7" t="inlineStr">
+        <is>
+          <t>Hall</t>
+        </is>
+      </c>
+      <c r="D154" s="7" t="inlineStr">
+        <is>
+          <t>HVD102</t>
+        </is>
+      </c>
+      <c r="E154" s="7" t="inlineStr">
+        <is>
+          <t>Heron View</t>
+        </is>
+      </c>
+      <c r="F154" s="7" t="inlineStr">
+        <is>
+          <t>2023/12/12</t>
+        </is>
+      </c>
+      <c r="G154" s="8" t="n">
+        <v>604260.27</v>
+      </c>
+      <c r="H154" s="8" t="n">
+        <v>500000</v>
+      </c>
+      <c r="I154" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J154" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="K154" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="7" t="inlineStr">
+        <is>
+          <t>ZLES01</t>
+        </is>
+      </c>
+      <c r="B155" s="7" t="inlineStr">
+        <is>
+          <t>Megan Frances</t>
+        </is>
+      </c>
+      <c r="C155" s="7" t="inlineStr">
+        <is>
+          <t>Leslie</t>
+        </is>
+      </c>
+      <c r="D155" s="7" t="inlineStr">
+        <is>
+          <t>HVD103</t>
+        </is>
+      </c>
+      <c r="E155" s="7" t="inlineStr">
+        <is>
+          <t>Heron View</t>
+        </is>
+      </c>
+      <c r="F155" s="7" t="inlineStr">
+        <is>
+          <t>2023/12/12</t>
+        </is>
+      </c>
+      <c r="G155" s="8" t="n">
+        <v>167914.73</v>
+      </c>
+      <c r="H155" s="8" t="n">
+        <v>150000</v>
+      </c>
+      <c r="I155" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J155" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="K155" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="7" t="inlineStr">
+        <is>
+          <t>ZGEC01</t>
+        </is>
+      </c>
+      <c r="B156" s="7" t="inlineStr">
+        <is>
+          <t>Gordon</t>
+        </is>
+      </c>
+      <c r="C156" s="7" t="inlineStr">
+        <is>
+          <t>Gecko</t>
+        </is>
+      </c>
+      <c r="D156" s="7" t="inlineStr">
+        <is>
+          <t>HFB203</t>
+        </is>
+      </c>
+      <c r="E156" s="7" t="inlineStr">
+        <is>
+          <t>Heron Fields</t>
+        </is>
+      </c>
+      <c r="F156" s="7" t="inlineStr">
+        <is>
+          <t>2022/11/30</t>
+        </is>
+      </c>
+      <c r="G156" s="8" t="n">
+        <v>767449.3199999999</v>
+      </c>
+      <c r="H156" s="8" t="n">
+        <v>600000</v>
+      </c>
+      <c r="I156" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J156" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="K156" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="7" t="inlineStr">
+        <is>
+          <t>ZGEC01</t>
+        </is>
+      </c>
+      <c r="B157" s="7" t="inlineStr">
+        <is>
+          <t>Gordon</t>
+        </is>
+      </c>
+      <c r="C157" s="7" t="inlineStr">
+        <is>
+          <t>Gecko</t>
+        </is>
+      </c>
+      <c r="D157" s="7" t="inlineStr">
+        <is>
+          <t>HFB212</t>
+        </is>
+      </c>
+      <c r="E157" s="7" t="inlineStr">
+        <is>
+          <t>Heron Fields</t>
+        </is>
+      </c>
+      <c r="F157" s="7" t="inlineStr">
+        <is>
+          <t>2023/05/10</t>
+        </is>
+      </c>
+      <c r="G157" s="8" t="n">
+        <v>1222631.51</v>
+      </c>
+      <c r="H157" s="8" t="n">
+        <v>900000</v>
+      </c>
+      <c r="I157" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J157" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="K157" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="7" t="inlineStr">
+        <is>
+          <t>ZGEC01</t>
+        </is>
+      </c>
+      <c r="B158" s="7" t="inlineStr">
+        <is>
+          <t>Gordon</t>
+        </is>
+      </c>
+      <c r="C158" s="7" t="inlineStr">
+        <is>
+          <t>Gecko</t>
+        </is>
+      </c>
+      <c r="D158" s="7" t="inlineStr">
+        <is>
+          <t>EA303</t>
+        </is>
+      </c>
+      <c r="E158" s="7" t="inlineStr">
+        <is>
+          <t>Endulini</t>
+        </is>
+      </c>
+      <c r="F158" s="7" t="inlineStr">
+        <is>
+          <t>2022/12/09</t>
+        </is>
+      </c>
+      <c r="G158" s="8" t="n">
+        <v>566390.41</v>
+      </c>
+      <c r="H158" s="8" t="n">
+        <v>500000</v>
+      </c>
+      <c r="I158" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J158" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="K158" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="7" t="inlineStr">
+        <is>
+          <t>ZHAY01</t>
+        </is>
+      </c>
+      <c r="B159" s="7" t="inlineStr">
+        <is>
+          <t>Johannes Wynand</t>
+        </is>
+      </c>
+      <c r="C159" s="7" t="inlineStr">
+        <is>
+          <t>Haywood</t>
+        </is>
+      </c>
+      <c r="D159" s="7" t="inlineStr">
+        <is>
+          <t>HVD302</t>
+        </is>
+      </c>
+      <c r="E159" s="7" t="inlineStr">
+        <is>
+          <t>Heron View</t>
+        </is>
+      </c>
+      <c r="F159" s="7" t="inlineStr">
+        <is>
+          <t>2024/07/31</t>
+        </is>
+      </c>
+      <c r="G159" s="8" t="n">
+        <v>1349499.59</v>
+      </c>
+      <c r="H159" s="8" t="n">
+        <v>1320414.3</v>
+      </c>
+      <c r="I159" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J159" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="K159" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="7" t="inlineStr">
+        <is>
+          <t>ZHAY01</t>
+        </is>
+      </c>
+      <c r="B160" s="7" t="inlineStr">
+        <is>
+          <t>Johannes Wynand</t>
+        </is>
+      </c>
+      <c r="C160" s="7" t="inlineStr">
+        <is>
+          <t>Haywood</t>
+        </is>
+      </c>
+      <c r="D160" s="7" t="inlineStr">
+        <is>
+          <t>HVD303</t>
+        </is>
+      </c>
+      <c r="E160" s="7" t="inlineStr">
+        <is>
+          <t>Heron View</t>
+        </is>
+      </c>
+      <c r="F160" s="7" t="inlineStr">
+        <is>
+          <t>2024/07/31</t>
+        </is>
+      </c>
+      <c r="G160" s="8" t="n">
+        <v>807102.04</v>
+      </c>
+      <c r="H160" s="8" t="n">
+        <v>789706.85</v>
+      </c>
+      <c r="I160" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J160" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="K160" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="7" t="inlineStr">
+        <is>
+          <t>ZHAY01</t>
+        </is>
+      </c>
+      <c r="B161" s="7" t="inlineStr">
+        <is>
+          <t>Johannes Wynand</t>
+        </is>
+      </c>
+      <c r="C161" s="7" t="inlineStr">
+        <is>
+          <t>Haywood</t>
+        </is>
+      </c>
+      <c r="D161" s="7" t="inlineStr">
+        <is>
+          <t>HVD304</t>
+        </is>
+      </c>
+      <c r="E161" s="7" t="inlineStr">
+        <is>
+          <t>Heron View</t>
+        </is>
+      </c>
+      <c r="F161" s="7" t="inlineStr">
+        <is>
+          <t>2024/07/31</t>
+        </is>
+      </c>
+      <c r="G161" s="8" t="n">
+        <v>194726.28</v>
+      </c>
+      <c r="H161" s="8" t="n">
+        <v>192406.85</v>
+      </c>
+      <c r="I161" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J161" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="K161" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="G163" s="9">
+        <f>SUBTOTAL(9, G4:G161)</f>
         <v/>
       </c>
-      <c r="H153" s="9">
-        <f>SUBTOTAL(9, H4:H151)</f>
+      <c r="H163" s="9">
+        <f>SUBTOTAL(9, H4:H161)</f>
         <v/>
       </c>
     </row>
